--- a/src/patterns/acs5_variable_sheets/agexnum_disabilities_poverty.xlsx
+++ b/src/patterns/acs5_variable_sheets/agexnum_disabilities_poverty.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rwalls/gh/srpdio/src/patterns/acs5_variable_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rwalls\gh\srpdio\src\patterns\acs5_variable_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05685D4-8BFA-984C-B080-F49A8B35CFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CC5F3B-5096-40C9-BDB1-8F9B955076CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="720" windowWidth="28040" windowHeight="17440" xr2:uid="{FEA26EBD-3762-0C43-B317-DA7196A35EE9}"/>
+    <workbookView xWindow="-27150" yWindow="1695" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{FEA26EBD-3762-0C43-B317-DA7196A35EE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Age by number of disabilities" sheetId="1" r:id="rId1"/>
     <sheet name="Age by disability by poverty" sheetId="2" r:id="rId2"/>
+    <sheet name="Age EJS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="118">
   <si>
     <t>Variable ID</t>
   </si>
@@ -324,12 +325,69 @@
   <si>
     <t>variable base</t>
   </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Variable type</t>
+  </si>
+  <si>
+    <t>ACSEDUCBAS</t>
+  </si>
+  <si>
+    <t>Population age 25 and above</t>
+  </si>
+  <si>
+    <t>population age 25 and above count</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>UNDER5</t>
+  </si>
+  <si>
+    <t>Under Age 5</t>
+  </si>
+  <si>
+    <t>under age 5 count</t>
+  </si>
+  <si>
+    <t>UNDER5PCT</t>
+  </si>
+  <si>
+    <t>Pct. Under Age 5</t>
+  </si>
+  <si>
+    <t>under age 5 per cent</t>
+  </si>
+  <si>
+    <t>per cent</t>
+  </si>
+  <si>
+    <t>OVER64</t>
+  </si>
+  <si>
+    <t>Over Age 64</t>
+  </si>
+  <si>
+    <t>over age 64 count</t>
+  </si>
+  <si>
+    <t>OVER64PCT</t>
+  </si>
+  <si>
+    <t>Pct. Over Age 64</t>
+  </si>
+  <si>
+    <t>over age 64 percent</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -372,16 +430,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -389,11 +471,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -420,6 +517,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,11 +848,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F73F506-33CC-E541-A2AD-58A68FE97EB0}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="25.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="25.33203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" style="4" customWidth="1"/>
@@ -757,7 +869,7 @@
     <col min="13" max="16384" width="25.33203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +906,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" ht="29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="26">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -826,7 +938,7 @@
       </c>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="26">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -860,7 +972,7 @@
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:13" ht="43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="31">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -896,7 +1008,7 @@
       </c>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="46.5">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -932,7 +1044,7 @@
       </c>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:13" ht="29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="26">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
@@ -968,7 +1080,7 @@
       </c>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="26">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1002,7 +1114,7 @@
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="31">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -1038,7 +1150,7 @@
       </c>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="46.5">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
@@ -1074,7 +1186,7 @@
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="26">
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
@@ -1110,7 +1222,7 @@
       </c>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="26">
       <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
@@ -1144,7 +1256,7 @@
       </c>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="31">
       <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
@@ -1180,7 +1292,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="46.5">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -1216,7 +1328,7 @@
       </c>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:13" ht="29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="26">
       <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
@@ -1252,96 +1364,96 @@
       </c>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="7" customFormat="1"/>
+    <row r="16" spans="1:13">
       <c r="I16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:11">
       <c r="I17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:11">
       <c r="I18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="9:11">
       <c r="I19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:11">
       <c r="I20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:11">
       <c r="I21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="9:11">
       <c r="I22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="9:11">
       <c r="I23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="9:11">
       <c r="I24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="9:11">
       <c r="I25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="9:11">
       <c r="I26" s="4"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:11">
       <c r="I27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:11">
       <c r="I28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="9:11">
       <c r="I29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="9:11">
       <c r="I30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="9:11">
       <c r="I31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="9:11">
       <c r="I32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="I33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="I34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="I35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12">
       <c r="I36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12">
       <c r="I37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1355,7 +1467,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1369,7 +1481,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1383,7 +1495,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1397,7 +1509,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1411,7 +1523,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1425,7 +1537,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1439,7 +1551,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1453,7 +1565,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1467,7 +1579,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1481,7 +1593,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1495,7 +1607,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1509,7 +1621,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1523,7 +1635,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1537,7 +1649,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -1551,7 +1663,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -1565,7 +1677,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -1579,7 +1691,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -1593,7 +1705,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -1607,7 +1719,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1621,7 +1733,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -1635,7 +1747,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -1649,7 +1761,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -1663,7 +1775,7 @@
       <c r="K60" s="4"/>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -1677,7 +1789,7 @@
       <c r="K61" s="4"/>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -1691,7 +1803,7 @@
       <c r="K62" s="4"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -1705,7 +1817,7 @@
       <c r="K63" s="4"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -1719,7 +1831,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -1733,7 +1845,7 @@
       <c r="K65" s="4"/>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -1747,7 +1859,7 @@
       <c r="K66" s="4"/>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -1761,7 +1873,7 @@
       <c r="K67" s="4"/>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -1775,7 +1887,7 @@
       <c r="K68" s="4"/>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -1789,7 +1901,7 @@
       <c r="K69" s="4"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -1803,7 +1915,7 @@
       <c r="K70" s="4"/>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -1817,7 +1929,7 @@
       <c r="K71" s="4"/>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -1831,7 +1943,7 @@
       <c r="K72" s="4"/>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -1845,7 +1957,7 @@
       <c r="K73" s="4"/>
       <c r="L73" s="5"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -1859,7 +1971,7 @@
       <c r="K74" s="4"/>
       <c r="L74" s="5"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -1873,7 +1985,7 @@
       <c r="K75" s="4"/>
       <c r="L75" s="5"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -1887,7 +1999,7 @@
       <c r="K76" s="4"/>
       <c r="L76" s="5"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -1901,7 +2013,7 @@
       <c r="K77" s="4"/>
       <c r="L77" s="5"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -1915,7 +2027,7 @@
       <c r="K78" s="4"/>
       <c r="L78" s="5"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -1929,7 +2041,7 @@
       <c r="K79" s="4"/>
       <c r="L79" s="5"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -1943,7 +2055,7 @@
       <c r="K80" s="4"/>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -1957,7 +2069,7 @@
       <c r="K81" s="4"/>
       <c r="L81" s="5"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -1971,7 +2083,7 @@
       <c r="K82" s="4"/>
       <c r="L82" s="5"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -1985,7 +2097,7 @@
       <c r="K83" s="4"/>
       <c r="L83" s="5"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -1999,7 +2111,7 @@
       <c r="K84" s="4"/>
       <c r="L84" s="5"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2013,7 +2125,7 @@
       <c r="K85" s="4"/>
       <c r="L85" s="5"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2027,7 +2139,7 @@
       <c r="K86" s="4"/>
       <c r="L86" s="5"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -2041,7 +2153,7 @@
       <c r="K87" s="4"/>
       <c r="L87" s="5"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -2055,7 +2167,7 @@
       <c r="K88" s="4"/>
       <c r="L88" s="5"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -2069,7 +2181,7 @@
       <c r="K89" s="4"/>
       <c r="L89" s="5"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -2083,7 +2195,7 @@
       <c r="K90" s="4"/>
       <c r="L90" s="5"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -2097,7 +2209,7 @@
       <c r="K91" s="4"/>
       <c r="L91" s="5"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -2111,7 +2223,7 @@
       <c r="K92" s="4"/>
       <c r="L92" s="5"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -2125,7 +2237,7 @@
       <c r="K93" s="4"/>
       <c r="L93" s="5"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -2139,7 +2251,7 @@
       <c r="K94" s="4"/>
       <c r="L94" s="5"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -2153,7 +2265,7 @@
       <c r="K95" s="4"/>
       <c r="L95" s="5"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -2167,7 +2279,7 @@
       <c r="K96" s="4"/>
       <c r="L96" s="5"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -2181,7 +2293,7 @@
       <c r="K97" s="4"/>
       <c r="L97" s="5"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -2195,7 +2307,7 @@
       <c r="K98" s="4"/>
       <c r="L98" s="5"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -2209,7 +2321,7 @@
       <c r="K99" s="4"/>
       <c r="L99" s="5"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -2223,7 +2335,7 @@
       <c r="K100" s="4"/>
       <c r="L100" s="5"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -2237,7 +2349,7 @@
       <c r="K101" s="4"/>
       <c r="L101" s="5"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -2251,7 +2363,7 @@
       <c r="K102" s="4"/>
       <c r="L102" s="5"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -2265,7 +2377,7 @@
       <c r="K103" s="4"/>
       <c r="L103" s="5"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -2279,7 +2391,7 @@
       <c r="K104" s="4"/>
       <c r="L104" s="5"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -2293,7 +2405,7 @@
       <c r="K105" s="4"/>
       <c r="L105" s="5"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -2307,7 +2419,7 @@
       <c r="K106" s="4"/>
       <c r="L106" s="5"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -2321,7 +2433,7 @@
       <c r="K107" s="4"/>
       <c r="L107" s="5"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -2335,7 +2447,7 @@
       <c r="K108" s="4"/>
       <c r="L108" s="5"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -2349,7 +2461,7 @@
       <c r="K109" s="4"/>
       <c r="L109" s="5"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -2363,7 +2475,7 @@
       <c r="K110" s="4"/>
       <c r="L110" s="5"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -2377,7 +2489,7 @@
       <c r="K111" s="4"/>
       <c r="L111" s="5"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -2391,7 +2503,7 @@
       <c r="K112" s="4"/>
       <c r="L112" s="5"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -2405,7 +2517,7 @@
       <c r="K113" s="4"/>
       <c r="L113" s="5"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -2419,7 +2531,7 @@
       <c r="K114" s="4"/>
       <c r="L114" s="5"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -2433,7 +2545,7 @@
       <c r="K115" s="4"/>
       <c r="L115" s="5"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -2447,7 +2559,7 @@
       <c r="K116" s="4"/>
       <c r="L116" s="5"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -2461,7 +2573,7 @@
       <c r="K117" s="4"/>
       <c r="L117" s="5"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -2475,7 +2587,7 @@
       <c r="K118" s="4"/>
       <c r="L118" s="5"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -2489,7 +2601,7 @@
       <c r="K119" s="4"/>
       <c r="L119" s="5"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -2503,7 +2615,7 @@
       <c r="K120" s="4"/>
       <c r="L120" s="5"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -2517,7 +2629,7 @@
       <c r="K121" s="4"/>
       <c r="L121" s="5"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -2531,7 +2643,7 @@
       <c r="K122" s="4"/>
       <c r="L122" s="5"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -2545,7 +2657,7 @@
       <c r="K123" s="4"/>
       <c r="L123" s="5"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -2559,7 +2671,7 @@
       <c r="K124" s="4"/>
       <c r="L124" s="5"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -2573,7 +2685,7 @@
       <c r="K125" s="4"/>
       <c r="L125" s="5"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -2587,7 +2699,7 @@
       <c r="K126" s="4"/>
       <c r="L126" s="5"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -2601,7 +2713,7 @@
       <c r="K127" s="4"/>
       <c r="L127" s="5"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -2615,7 +2727,7 @@
       <c r="K128" s="4"/>
       <c r="L128" s="5"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -2629,7 +2741,7 @@
       <c r="K129" s="4"/>
       <c r="L129" s="5"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -2643,7 +2755,7 @@
       <c r="K130" s="4"/>
       <c r="L130" s="5"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -2657,7 +2769,7 @@
       <c r="K131" s="4"/>
       <c r="L131" s="5"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -2671,7 +2783,7 @@
       <c r="K132" s="4"/>
       <c r="L132" s="5"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -2685,7 +2797,7 @@
       <c r="K133" s="4"/>
       <c r="L133" s="5"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -2699,7 +2811,7 @@
       <c r="K134" s="4"/>
       <c r="L134" s="5"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -2713,7 +2825,7 @@
       <c r="K135" s="4"/>
       <c r="L135" s="5"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -2727,7 +2839,7 @@
       <c r="K136" s="4"/>
       <c r="L136" s="5"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -2741,7 +2853,7 @@
       <c r="K137" s="4"/>
       <c r="L137" s="5"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -2755,7 +2867,7 @@
       <c r="K138" s="4"/>
       <c r="L138" s="5"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -2769,7 +2881,7 @@
       <c r="K139" s="4"/>
       <c r="L139" s="5"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2783,7 +2895,7 @@
       <c r="K140" s="4"/>
       <c r="L140" s="5"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -2797,7 +2909,7 @@
       <c r="K141" s="4"/>
       <c r="L141" s="5"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -2811,7 +2923,7 @@
       <c r="K142" s="4"/>
       <c r="L142" s="5"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -2825,7 +2937,7 @@
       <c r="K143" s="4"/>
       <c r="L143" s="5"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -2839,7 +2951,7 @@
       <c r="K144" s="4"/>
       <c r="L144" s="5"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -2853,7 +2965,7 @@
       <c r="K145" s="4"/>
       <c r="L145" s="5"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -2867,7 +2979,7 @@
       <c r="K146" s="4"/>
       <c r="L146" s="5"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -2881,7 +2993,7 @@
       <c r="K147" s="4"/>
       <c r="L147" s="5"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -2895,7 +3007,7 @@
       <c r="K148" s="4"/>
       <c r="L148" s="5"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -2909,7 +3021,7 @@
       <c r="K149" s="4"/>
       <c r="L149" s="5"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -2923,7 +3035,7 @@
       <c r="K150" s="4"/>
       <c r="L150" s="5"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -2937,7 +3049,7 @@
       <c r="K151" s="4"/>
       <c r="L151" s="5"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -2951,7 +3063,7 @@
       <c r="K152" s="4"/>
       <c r="L152" s="5"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -2965,7 +3077,7 @@
       <c r="K153" s="4"/>
       <c r="L153" s="5"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -2979,7 +3091,7 @@
       <c r="K154" s="4"/>
       <c r="L154" s="5"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -2993,7 +3105,7 @@
       <c r="K155" s="4"/>
       <c r="L155" s="5"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -3007,7 +3119,7 @@
       <c r="K156" s="4"/>
       <c r="L156" s="5"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -3021,7 +3133,7 @@
       <c r="K157" s="4"/>
       <c r="L157" s="5"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -3035,7 +3147,7 @@
       <c r="K158" s="4"/>
       <c r="L158" s="5"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -3049,7 +3161,7 @@
       <c r="K159" s="4"/>
       <c r="L159" s="5"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -3063,7 +3175,7 @@
       <c r="K160" s="4"/>
       <c r="L160" s="5"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -3077,7 +3189,7 @@
       <c r="K161" s="4"/>
       <c r="L161" s="5"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -3091,7 +3203,7 @@
       <c r="K162" s="4"/>
       <c r="L162" s="5"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -3105,7 +3217,7 @@
       <c r="K163" s="4"/>
       <c r="L163" s="5"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -3119,7 +3231,7 @@
       <c r="K164" s="4"/>
       <c r="L164" s="5"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -3133,7 +3245,7 @@
       <c r="K165" s="4"/>
       <c r="L165" s="5"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -3147,7 +3259,7 @@
       <c r="K166" s="4"/>
       <c r="L166" s="5"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -3161,7 +3273,7 @@
       <c r="K167" s="4"/>
       <c r="L167" s="5"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -3175,7 +3287,7 @@
       <c r="K168" s="4"/>
       <c r="L168" s="5"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -3189,7 +3301,7 @@
       <c r="K169" s="4"/>
       <c r="L169" s="5"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -3203,7 +3315,7 @@
       <c r="K170" s="4"/>
       <c r="L170" s="5"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -3217,7 +3329,7 @@
       <c r="K171" s="4"/>
       <c r="L171" s="5"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -3231,7 +3343,7 @@
       <c r="K172" s="4"/>
       <c r="L172" s="5"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -3245,7 +3357,7 @@
       <c r="K173" s="4"/>
       <c r="L173" s="5"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -3259,7 +3371,7 @@
       <c r="K174" s="4"/>
       <c r="L174" s="5"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -3273,7 +3385,7 @@
       <c r="K175" s="4"/>
       <c r="L175" s="5"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -3287,7 +3399,7 @@
       <c r="K176" s="4"/>
       <c r="L176" s="5"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -3301,7 +3413,7 @@
       <c r="K177" s="4"/>
       <c r="L177" s="5"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -3315,7 +3427,7 @@
       <c r="K178" s="4"/>
       <c r="L178" s="5"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -3329,7 +3441,7 @@
       <c r="K179" s="4"/>
       <c r="L179" s="5"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -3343,7 +3455,7 @@
       <c r="K180" s="4"/>
       <c r="L180" s="5"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -3357,7 +3469,7 @@
       <c r="K181" s="4"/>
       <c r="L181" s="5"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -3371,7 +3483,7 @@
       <c r="K182" s="4"/>
       <c r="L182" s="5"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -3385,7 +3497,7 @@
       <c r="K183" s="4"/>
       <c r="L183" s="5"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -3399,7 +3511,7 @@
       <c r="K184" s="4"/>
       <c r="L184" s="5"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -3413,7 +3525,7 @@
       <c r="K185" s="4"/>
       <c r="L185" s="5"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -3427,7 +3539,7 @@
       <c r="K186" s="4"/>
       <c r="L186" s="5"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -3441,7 +3553,7 @@
       <c r="K187" s="4"/>
       <c r="L187" s="5"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -3455,7 +3567,7 @@
       <c r="K188" s="4"/>
       <c r="L188" s="5"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -3469,7 +3581,7 @@
       <c r="K189" s="4"/>
       <c r="L189" s="5"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -3483,7 +3595,7 @@
       <c r="K190" s="4"/>
       <c r="L190" s="5"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -3497,7 +3609,7 @@
       <c r="K191" s="4"/>
       <c r="L191" s="5"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -3511,7 +3623,7 @@
       <c r="K192" s="4"/>
       <c r="L192" s="5"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -3525,7 +3637,7 @@
       <c r="K193" s="4"/>
       <c r="L193" s="5"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -3539,7 +3651,7 @@
       <c r="K194" s="4"/>
       <c r="L194" s="5"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -3553,7 +3665,7 @@
       <c r="K195" s="4"/>
       <c r="L195" s="5"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -3567,7 +3679,7 @@
       <c r="K196" s="4"/>
       <c r="L196" s="5"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -3581,7 +3693,7 @@
       <c r="K197" s="4"/>
       <c r="L197" s="5"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -3595,7 +3707,7 @@
       <c r="K198" s="4"/>
       <c r="L198" s="5"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -3609,7 +3721,7 @@
       <c r="K199" s="4"/>
       <c r="L199" s="5"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -3623,7 +3735,7 @@
       <c r="K200" s="4"/>
       <c r="L200" s="5"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -3637,7 +3749,7 @@
       <c r="K201" s="4"/>
       <c r="L201" s="5"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -3651,7 +3763,7 @@
       <c r="K202" s="4"/>
       <c r="L202" s="5"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -3665,7 +3777,7 @@
       <c r="K203" s="4"/>
       <c r="L203" s="5"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -3679,7 +3791,7 @@
       <c r="K204" s="4"/>
       <c r="L204" s="5"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -3693,7 +3805,7 @@
       <c r="K205" s="4"/>
       <c r="L205" s="5"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -3707,7 +3819,7 @@
       <c r="K206" s="4"/>
       <c r="L206" s="5"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -3721,7 +3833,7 @@
       <c r="K207" s="4"/>
       <c r="L207" s="5"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -3735,7 +3847,7 @@
       <c r="K208" s="4"/>
       <c r="L208" s="5"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -3749,7 +3861,7 @@
       <c r="K209" s="4"/>
       <c r="L209" s="5"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -3763,7 +3875,7 @@
       <c r="K210" s="4"/>
       <c r="L210" s="5"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -3777,7 +3889,7 @@
       <c r="K211" s="4"/>
       <c r="L211" s="5"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -3791,7 +3903,7 @@
       <c r="K212" s="4"/>
       <c r="L212" s="5"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -3805,7 +3917,7 @@
       <c r="K213" s="4"/>
       <c r="L213" s="5"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -3819,7 +3931,7 @@
       <c r="K214" s="4"/>
       <c r="L214" s="5"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -3833,7 +3945,7 @@
       <c r="K215" s="4"/>
       <c r="L215" s="5"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -3847,7 +3959,7 @@
       <c r="K216" s="4"/>
       <c r="L216" s="5"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -3861,7 +3973,7 @@
       <c r="K217" s="4"/>
       <c r="L217" s="5"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -3875,7 +3987,7 @@
       <c r="K218" s="4"/>
       <c r="L218" s="5"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -3889,7 +4001,7 @@
       <c r="K219" s="4"/>
       <c r="L219" s="5"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -3903,7 +4015,7 @@
       <c r="K220" s="4"/>
       <c r="L220" s="5"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -3917,7 +4029,7 @@
       <c r="K221" s="4"/>
       <c r="L221" s="5"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -3931,7 +4043,7 @@
       <c r="K222" s="4"/>
       <c r="L222" s="5"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -3945,7 +4057,7 @@
       <c r="K223" s="4"/>
       <c r="L223" s="5"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -3959,7 +4071,7 @@
       <c r="K224" s="4"/>
       <c r="L224" s="5"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -3973,7 +4085,7 @@
       <c r="K225" s="4"/>
       <c r="L225" s="5"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -3987,7 +4099,7 @@
       <c r="K226" s="4"/>
       <c r="L226" s="5"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -4001,7 +4113,7 @@
       <c r="K227" s="4"/>
       <c r="L227" s="5"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -4015,7 +4127,7 @@
       <c r="K228" s="4"/>
       <c r="L228" s="5"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -4029,7 +4141,7 @@
       <c r="K229" s="4"/>
       <c r="L229" s="5"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -4043,7 +4155,7 @@
       <c r="K230" s="4"/>
       <c r="L230" s="5"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -4057,7 +4169,7 @@
       <c r="K231" s="4"/>
       <c r="L231" s="5"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -4071,7 +4183,7 @@
       <c r="K232" s="4"/>
       <c r="L232" s="5"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -4085,7 +4197,7 @@
       <c r="K233" s="4"/>
       <c r="L233" s="5"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -4099,7 +4211,7 @@
       <c r="K234" s="4"/>
       <c r="L234" s="5"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -4113,7 +4225,7 @@
       <c r="K235" s="4"/>
       <c r="L235" s="5"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -4127,7 +4239,7 @@
       <c r="K236" s="4"/>
       <c r="L236" s="5"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -4141,7 +4253,7 @@
       <c r="K237" s="4"/>
       <c r="L237" s="5"/>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -4155,7 +4267,7 @@
       <c r="K238" s="4"/>
       <c r="L238" s="5"/>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -4169,7 +4281,7 @@
       <c r="K239" s="4"/>
       <c r="L239" s="5"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -4183,7 +4295,7 @@
       <c r="K240" s="4"/>
       <c r="L240" s="5"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -4197,7 +4309,7 @@
       <c r="K241" s="4"/>
       <c r="L241" s="5"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -4211,7 +4323,7 @@
       <c r="K242" s="4"/>
       <c r="L242" s="5"/>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -4225,7 +4337,7 @@
       <c r="K243" s="4"/>
       <c r="L243" s="5"/>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -4239,7 +4351,7 @@
       <c r="K244" s="4"/>
       <c r="L244" s="5"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -4253,7 +4365,7 @@
       <c r="K245" s="4"/>
       <c r="L245" s="5"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -4267,7 +4379,7 @@
       <c r="K246" s="4"/>
       <c r="L246" s="5"/>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -4281,7 +4393,7 @@
       <c r="K247" s="4"/>
       <c r="L247" s="5"/>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -4295,7 +4407,7 @@
       <c r="K248" s="4"/>
       <c r="L248" s="5"/>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -4309,7 +4421,7 @@
       <c r="K249" s="4"/>
       <c r="L249" s="5"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -4323,7 +4435,7 @@
       <c r="K250" s="4"/>
       <c r="L250" s="5"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -4337,7 +4449,7 @@
       <c r="K251" s="4"/>
       <c r="L251" s="5"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -4351,7 +4463,7 @@
       <c r="K252" s="4"/>
       <c r="L252" s="5"/>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -4365,7 +4477,7 @@
       <c r="K253" s="4"/>
       <c r="L253" s="5"/>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -4379,7 +4491,7 @@
       <c r="K254" s="4"/>
       <c r="L254" s="5"/>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -4393,7 +4505,7 @@
       <c r="K255" s="4"/>
       <c r="L255" s="5"/>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -4407,7 +4519,7 @@
       <c r="K256" s="4"/>
       <c r="L256" s="5"/>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -4421,7 +4533,7 @@
       <c r="K257" s="4"/>
       <c r="L257" s="5"/>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -4435,7 +4547,7 @@
       <c r="K258" s="4"/>
       <c r="L258" s="5"/>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -4449,7 +4561,7 @@
       <c r="K259" s="4"/>
       <c r="L259" s="5"/>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -4463,7 +4575,7 @@
       <c r="K260" s="4"/>
       <c r="L260" s="5"/>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -4477,7 +4589,7 @@
       <c r="K261" s="4"/>
       <c r="L261" s="5"/>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -4491,7 +4603,7 @@
       <c r="K262" s="4"/>
       <c r="L262" s="5"/>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -4505,7 +4617,7 @@
       <c r="K263" s="4"/>
       <c r="L263" s="5"/>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -4519,7 +4631,7 @@
       <c r="K264" s="4"/>
       <c r="L264" s="5"/>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -4533,7 +4645,7 @@
       <c r="K265" s="4"/>
       <c r="L265" s="5"/>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -4547,7 +4659,7 @@
       <c r="K266" s="4"/>
       <c r="L266" s="5"/>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -4561,7 +4673,7 @@
       <c r="K267" s="4"/>
       <c r="L267" s="5"/>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -4575,7 +4687,7 @@
       <c r="K268" s="4"/>
       <c r="L268" s="5"/>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -4589,7 +4701,7 @@
       <c r="K269" s="4"/>
       <c r="L269" s="5"/>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -4603,7 +4715,7 @@
       <c r="K270" s="4"/>
       <c r="L270" s="5"/>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -4617,7 +4729,7 @@
       <c r="K271" s="4"/>
       <c r="L271" s="5"/>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -4631,7 +4743,7 @@
       <c r="K272" s="4"/>
       <c r="L272" s="5"/>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -4645,7 +4757,7 @@
       <c r="K273" s="4"/>
       <c r="L273" s="5"/>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -4659,7 +4771,7 @@
       <c r="K274" s="4"/>
       <c r="L274" s="5"/>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -4673,7 +4785,7 @@
       <c r="K275" s="4"/>
       <c r="L275" s="5"/>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:12">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -4687,7 +4799,7 @@
       <c r="K276" s="4"/>
       <c r="L276" s="5"/>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:12">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -4701,7 +4813,7 @@
       <c r="K277" s="4"/>
       <c r="L277" s="5"/>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -4715,7 +4827,7 @@
       <c r="K278" s="4"/>
       <c r="L278" s="5"/>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:12">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -4729,7 +4841,7 @@
       <c r="K279" s="4"/>
       <c r="L279" s="5"/>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:12">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -4743,7 +4855,7 @@
       <c r="K280" s="4"/>
       <c r="L280" s="5"/>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -4757,7 +4869,7 @@
       <c r="K281" s="4"/>
       <c r="L281" s="5"/>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -4771,7 +4883,7 @@
       <c r="K282" s="4"/>
       <c r="L282" s="5"/>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:12">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -4785,7 +4897,7 @@
       <c r="K283" s="4"/>
       <c r="L283" s="5"/>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:12">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -4799,7 +4911,7 @@
       <c r="K284" s="4"/>
       <c r="L284" s="5"/>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:12">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -4813,7 +4925,7 @@
       <c r="K285" s="4"/>
       <c r="L285" s="5"/>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:12">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -4827,7 +4939,7 @@
       <c r="K286" s="4"/>
       <c r="L286" s="5"/>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:12">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -4841,7 +4953,7 @@
       <c r="K287" s="4"/>
       <c r="L287" s="5"/>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:12">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -4855,7 +4967,7 @@
       <c r="K288" s="4"/>
       <c r="L288" s="5"/>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:12">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -4869,7 +4981,7 @@
       <c r="K289" s="4"/>
       <c r="L289" s="5"/>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:12">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -4883,7 +4995,7 @@
       <c r="K290" s="4"/>
       <c r="L290" s="5"/>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:12">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -4897,7 +5009,7 @@
       <c r="K291" s="4"/>
       <c r="L291" s="5"/>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:12">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -4911,7 +5023,7 @@
       <c r="K292" s="4"/>
       <c r="L292" s="5"/>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:12">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -4925,7 +5037,7 @@
       <c r="K293" s="4"/>
       <c r="L293" s="5"/>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:12">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -4939,7 +5051,7 @@
       <c r="K294" s="4"/>
       <c r="L294" s="5"/>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:12">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -4953,7 +5065,7 @@
       <c r="K295" s="4"/>
       <c r="L295" s="5"/>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:12">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -4967,7 +5079,7 @@
       <c r="K296" s="4"/>
       <c r="L296" s="5"/>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:12">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -4981,7 +5093,7 @@
       <c r="K297" s="4"/>
       <c r="L297" s="5"/>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:12">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -4995,7 +5107,7 @@
       <c r="K298" s="4"/>
       <c r="L298" s="5"/>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:12">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -5009,7 +5121,7 @@
       <c r="K299" s="4"/>
       <c r="L299" s="5"/>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:12">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -5023,7 +5135,7 @@
       <c r="K300" s="4"/>
       <c r="L300" s="5"/>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:12">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -5037,7 +5149,7 @@
       <c r="K301" s="4"/>
       <c r="L301" s="5"/>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:12">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -5051,7 +5163,7 @@
       <c r="K302" s="4"/>
       <c r="L302" s="5"/>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:12">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -5065,7 +5177,7 @@
       <c r="K303" s="4"/>
       <c r="L303" s="5"/>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:12">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -5079,7 +5191,7 @@
       <c r="K304" s="4"/>
       <c r="L304" s="5"/>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -5093,7 +5205,7 @@
       <c r="K305" s="4"/>
       <c r="L305" s="5"/>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -5107,7 +5219,7 @@
       <c r="K306" s="4"/>
       <c r="L306" s="5"/>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -5121,7 +5233,7 @@
       <c r="K307" s="4"/>
       <c r="L307" s="5"/>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -5135,7 +5247,7 @@
       <c r="K308" s="4"/>
       <c r="L308" s="5"/>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -5149,7 +5261,7 @@
       <c r="K309" s="4"/>
       <c r="L309" s="5"/>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -5163,7 +5275,7 @@
       <c r="K310" s="4"/>
       <c r="L310" s="5"/>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -5177,7 +5289,7 @@
       <c r="K311" s="4"/>
       <c r="L311" s="5"/>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -5191,7 +5303,7 @@
       <c r="K312" s="4"/>
       <c r="L312" s="5"/>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -5205,7 +5317,7 @@
       <c r="K313" s="4"/>
       <c r="L313" s="5"/>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -5219,7 +5331,7 @@
       <c r="K314" s="4"/>
       <c r="L314" s="5"/>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -5233,7 +5345,7 @@
       <c r="K315" s="4"/>
       <c r="L315" s="5"/>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -5247,7 +5359,7 @@
       <c r="K316" s="4"/>
       <c r="L316" s="5"/>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -5261,7 +5373,7 @@
       <c r="K317" s="4"/>
       <c r="L317" s="5"/>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -5275,7 +5387,7 @@
       <c r="K318" s="4"/>
       <c r="L318" s="5"/>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -5289,7 +5401,7 @@
       <c r="K319" s="4"/>
       <c r="L319" s="5"/>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -5303,7 +5415,7 @@
       <c r="K320" s="4"/>
       <c r="L320" s="5"/>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:12">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -5317,7 +5429,7 @@
       <c r="K321" s="4"/>
       <c r="L321" s="5"/>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:12">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -5331,7 +5443,7 @@
       <c r="K322" s="4"/>
       <c r="L322" s="5"/>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:12">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -5345,7 +5457,7 @@
       <c r="K323" s="4"/>
       <c r="L323" s="5"/>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:12">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -5359,7 +5471,7 @@
       <c r="K324" s="4"/>
       <c r="L324" s="5"/>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:12">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -5373,7 +5485,7 @@
       <c r="K325" s="4"/>
       <c r="L325" s="5"/>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:12">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -5387,7 +5499,7 @@
       <c r="K326" s="4"/>
       <c r="L326" s="5"/>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -5401,7 +5513,7 @@
       <c r="K327" s="4"/>
       <c r="L327" s="5"/>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:12">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -5415,7 +5527,7 @@
       <c r="K328" s="4"/>
       <c r="L328" s="5"/>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -5429,7 +5541,7 @@
       <c r="K329" s="4"/>
       <c r="L329" s="5"/>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:12">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -5443,7 +5555,7 @@
       <c r="K330" s="4"/>
       <c r="L330" s="5"/>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -5457,7 +5569,7 @@
       <c r="K331" s="4"/>
       <c r="L331" s="5"/>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -5471,7 +5583,7 @@
       <c r="K332" s="4"/>
       <c r="L332" s="5"/>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:12">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -5485,7 +5597,7 @@
       <c r="K333" s="4"/>
       <c r="L333" s="5"/>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:12">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -5499,7 +5611,7 @@
       <c r="K334" s="4"/>
       <c r="L334" s="5"/>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:12">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -5513,7 +5625,7 @@
       <c r="K335" s="4"/>
       <c r="L335" s="5"/>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:12">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -5527,7 +5639,7 @@
       <c r="K336" s="4"/>
       <c r="L336" s="5"/>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -5541,7 +5653,7 @@
       <c r="K337" s="4"/>
       <c r="L337" s="5"/>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -5555,7 +5667,7 @@
       <c r="K338" s="4"/>
       <c r="L338" s="5"/>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:12">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -5569,7 +5681,7 @@
       <c r="K339" s="4"/>
       <c r="L339" s="5"/>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -5583,7 +5695,7 @@
       <c r="K340" s="4"/>
       <c r="L340" s="5"/>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:12">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -5597,7 +5709,7 @@
       <c r="K341" s="4"/>
       <c r="L341" s="5"/>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:12">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -5611,7 +5723,7 @@
       <c r="K342" s="4"/>
       <c r="L342" s="5"/>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:12">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -5625,7 +5737,7 @@
       <c r="K343" s="4"/>
       <c r="L343" s="5"/>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -5639,7 +5751,7 @@
       <c r="K344" s="4"/>
       <c r="L344" s="5"/>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -5653,7 +5765,7 @@
       <c r="K345" s="4"/>
       <c r="L345" s="5"/>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -5667,7 +5779,7 @@
       <c r="K346" s="4"/>
       <c r="L346" s="5"/>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:12">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -5681,7 +5793,7 @@
       <c r="K347" s="4"/>
       <c r="L347" s="5"/>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -5695,7 +5807,7 @@
       <c r="K348" s="4"/>
       <c r="L348" s="5"/>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -5709,7 +5821,7 @@
       <c r="K349" s="4"/>
       <c r="L349" s="5"/>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:12">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -5723,7 +5835,7 @@
       <c r="K350" s="4"/>
       <c r="L350" s="5"/>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:12">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -5737,7 +5849,7 @@
       <c r="K351" s="4"/>
       <c r="L351" s="5"/>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:12">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -5751,7 +5863,7 @@
       <c r="K352" s="4"/>
       <c r="L352" s="5"/>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:12">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -5765,7 +5877,7 @@
       <c r="K353" s="4"/>
       <c r="L353" s="5"/>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:12">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -5779,7 +5891,7 @@
       <c r="K354" s="4"/>
       <c r="L354" s="5"/>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:12">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -5793,7 +5905,7 @@
       <c r="K355" s="4"/>
       <c r="L355" s="5"/>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:12">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -5807,7 +5919,7 @@
       <c r="K356" s="4"/>
       <c r="L356" s="5"/>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:12">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -5821,7 +5933,7 @@
       <c r="K357" s="4"/>
       <c r="L357" s="5"/>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:12">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -5835,7 +5947,7 @@
       <c r="K358" s="4"/>
       <c r="L358" s="5"/>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:12">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -5849,7 +5961,7 @@
       <c r="K359" s="4"/>
       <c r="L359" s="5"/>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:12">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -5863,7 +5975,7 @@
       <c r="K360" s="4"/>
       <c r="L360" s="5"/>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:12">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -5877,7 +5989,7 @@
       <c r="K361" s="4"/>
       <c r="L361" s="5"/>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:12">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -5891,7 +6003,7 @@
       <c r="K362" s="4"/>
       <c r="L362" s="5"/>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:12">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -5905,7 +6017,7 @@
       <c r="K363" s="4"/>
       <c r="L363" s="5"/>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:12">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -5919,7 +6031,7 @@
       <c r="K364" s="4"/>
       <c r="L364" s="5"/>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:12">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -5933,7 +6045,7 @@
       <c r="K365" s="4"/>
       <c r="L365" s="5"/>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:12">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -5947,7 +6059,7 @@
       <c r="K366" s="4"/>
       <c r="L366" s="5"/>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:12">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -5961,7 +6073,7 @@
       <c r="K367" s="4"/>
       <c r="L367" s="5"/>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:12">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -5975,7 +6087,7 @@
       <c r="K368" s="4"/>
       <c r="L368" s="5"/>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:12">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -5989,7 +6101,7 @@
       <c r="K369" s="4"/>
       <c r="L369" s="5"/>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:12">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -6003,7 +6115,7 @@
       <c r="K370" s="4"/>
       <c r="L370" s="5"/>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:12">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -6017,7 +6129,7 @@
       <c r="K371" s="4"/>
       <c r="L371" s="5"/>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:12">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -6031,7 +6143,7 @@
       <c r="K372" s="4"/>
       <c r="L372" s="5"/>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:12">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -6045,7 +6157,7 @@
       <c r="K373" s="4"/>
       <c r="L373" s="5"/>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:12">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -6059,7 +6171,7 @@
       <c r="K374" s="4"/>
       <c r="L374" s="5"/>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:12">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -6073,7 +6185,7 @@
       <c r="K375" s="4"/>
       <c r="L375" s="5"/>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:12">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -6087,7 +6199,7 @@
       <c r="K376" s="4"/>
       <c r="L376" s="5"/>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:12">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -6101,7 +6213,7 @@
       <c r="K377" s="4"/>
       <c r="L377" s="5"/>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:12">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -6115,7 +6227,7 @@
       <c r="K378" s="4"/>
       <c r="L378" s="5"/>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:12">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -6129,7 +6241,7 @@
       <c r="K379" s="4"/>
       <c r="L379" s="5"/>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:12">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -6143,7 +6255,7 @@
       <c r="K380" s="4"/>
       <c r="L380" s="5"/>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:12">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -6157,7 +6269,7 @@
       <c r="K381" s="4"/>
       <c r="L381" s="5"/>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:12">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
@@ -6171,7 +6283,7 @@
       <c r="K382" s="4"/>
       <c r="L382" s="5"/>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:12">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
@@ -6185,7 +6297,7 @@
       <c r="K383" s="4"/>
       <c r="L383" s="5"/>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:12">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
@@ -6199,7 +6311,7 @@
       <c r="K384" s="4"/>
       <c r="L384" s="5"/>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:12">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
@@ -6213,7 +6325,7 @@
       <c r="K385" s="4"/>
       <c r="L385" s="5"/>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:12">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
@@ -6227,7 +6339,7 @@
       <c r="K386" s="4"/>
       <c r="L386" s="5"/>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:12">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
@@ -6241,7 +6353,7 @@
       <c r="K387" s="4"/>
       <c r="L387" s="5"/>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:12">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
@@ -6255,7 +6367,7 @@
       <c r="K388" s="4"/>
       <c r="L388" s="5"/>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:12">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
@@ -6269,7 +6381,7 @@
       <c r="K389" s="4"/>
       <c r="L389" s="5"/>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:12">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
@@ -6283,7 +6395,7 @@
       <c r="K390" s="4"/>
       <c r="L390" s="5"/>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:12">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
@@ -6297,7 +6409,7 @@
       <c r="K391" s="4"/>
       <c r="L391" s="5"/>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:12">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
@@ -6311,7 +6423,7 @@
       <c r="K392" s="4"/>
       <c r="L392" s="5"/>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:12">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
@@ -6325,7 +6437,7 @@
       <c r="K393" s="4"/>
       <c r="L393" s="5"/>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:12">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -6339,7 +6451,7 @@
       <c r="K394" s="4"/>
       <c r="L394" s="5"/>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:12">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
@@ -6353,7 +6465,7 @@
       <c r="K395" s="4"/>
       <c r="L395" s="5"/>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:12">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
@@ -6367,7 +6479,7 @@
       <c r="K396" s="4"/>
       <c r="L396" s="5"/>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:12">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
@@ -6381,7 +6493,7 @@
       <c r="K397" s="4"/>
       <c r="L397" s="5"/>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:12">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
@@ -6395,7 +6507,7 @@
       <c r="K398" s="4"/>
       <c r="L398" s="5"/>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:12">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
@@ -6409,7 +6521,7 @@
       <c r="K399" s="4"/>
       <c r="L399" s="5"/>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:12">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
@@ -6423,7 +6535,7 @@
       <c r="K400" s="4"/>
       <c r="L400" s="5"/>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:12">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
@@ -6437,7 +6549,7 @@
       <c r="K401" s="4"/>
       <c r="L401" s="5"/>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:12">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
@@ -6451,7 +6563,7 @@
       <c r="K402" s="4"/>
       <c r="L402" s="5"/>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:12">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
@@ -6465,7 +6577,7 @@
       <c r="K403" s="4"/>
       <c r="L403" s="5"/>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:12">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -6479,7 +6591,7 @@
       <c r="K404" s="4"/>
       <c r="L404" s="5"/>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:12">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
@@ -6493,7 +6605,7 @@
       <c r="K405" s="4"/>
       <c r="L405" s="5"/>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:12">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
@@ -6507,7 +6619,7 @@
       <c r="K406" s="4"/>
       <c r="L406" s="5"/>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:12">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
@@ -6521,7 +6633,7 @@
       <c r="K407" s="4"/>
       <c r="L407" s="5"/>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:12">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
@@ -6535,7 +6647,7 @@
       <c r="K408" s="4"/>
       <c r="L408" s="5"/>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:12">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
@@ -6549,7 +6661,7 @@
       <c r="K409" s="4"/>
       <c r="L409" s="5"/>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:12">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
@@ -6563,7 +6675,7 @@
       <c r="K410" s="4"/>
       <c r="L410" s="5"/>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:12">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
@@ -6577,7 +6689,7 @@
       <c r="K411" s="4"/>
       <c r="L411" s="5"/>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:12">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
@@ -6591,7 +6703,7 @@
       <c r="K412" s="4"/>
       <c r="L412" s="5"/>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:12">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
@@ -6605,7 +6717,7 @@
       <c r="K413" s="4"/>
       <c r="L413" s="5"/>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -6619,7 +6731,7 @@
       <c r="K414" s="4"/>
       <c r="L414" s="5"/>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:12">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
@@ -6633,7 +6745,7 @@
       <c r="K415" s="4"/>
       <c r="L415" s="5"/>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
@@ -6647,7 +6759,7 @@
       <c r="K416" s="4"/>
       <c r="L416" s="5"/>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:12">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
@@ -6661,7 +6773,7 @@
       <c r="K417" s="4"/>
       <c r="L417" s="5"/>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:12">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
@@ -6675,7 +6787,7 @@
       <c r="K418" s="4"/>
       <c r="L418" s="5"/>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:12">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
@@ -6689,7 +6801,7 @@
       <c r="K419" s="4"/>
       <c r="L419" s="5"/>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:12">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
@@ -6703,7 +6815,7 @@
       <c r="K420" s="4"/>
       <c r="L420" s="5"/>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:12">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
@@ -6717,7 +6829,7 @@
       <c r="K421" s="4"/>
       <c r="L421" s="5"/>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:12">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
@@ -6731,7 +6843,7 @@
       <c r="K422" s="4"/>
       <c r="L422" s="5"/>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:12">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
@@ -6745,7 +6857,7 @@
       <c r="K423" s="4"/>
       <c r="L423" s="5"/>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:12">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
@@ -6759,7 +6871,7 @@
       <c r="K424" s="4"/>
       <c r="L424" s="5"/>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:12">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
@@ -6773,7 +6885,7 @@
       <c r="K425" s="4"/>
       <c r="L425" s="5"/>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:12">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
@@ -6787,7 +6899,7 @@
       <c r="K426" s="4"/>
       <c r="L426" s="5"/>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:12">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
@@ -6801,7 +6913,7 @@
       <c r="K427" s="4"/>
       <c r="L427" s="5"/>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:12">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
@@ -6815,7 +6927,7 @@
       <c r="K428" s="4"/>
       <c r="L428" s="5"/>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:12">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
@@ -6829,7 +6941,7 @@
       <c r="K429" s="4"/>
       <c r="L429" s="5"/>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:12">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
@@ -6843,7 +6955,7 @@
       <c r="K430" s="4"/>
       <c r="L430" s="5"/>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:12">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
@@ -6857,7 +6969,7 @@
       <c r="K431" s="4"/>
       <c r="L431" s="5"/>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:12">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
@@ -6871,7 +6983,7 @@
       <c r="K432" s="4"/>
       <c r="L432" s="5"/>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
@@ -6885,7 +6997,7 @@
       <c r="K433" s="4"/>
       <c r="L433" s="5"/>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
@@ -6899,7 +7011,7 @@
       <c r="K434" s="4"/>
       <c r="L434" s="5"/>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
@@ -6913,7 +7025,7 @@
       <c r="K435" s="4"/>
       <c r="L435" s="5"/>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:12">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
@@ -6927,7 +7039,7 @@
       <c r="K436" s="4"/>
       <c r="L436" s="5"/>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:12">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
@@ -6941,7 +7053,7 @@
       <c r="K437" s="4"/>
       <c r="L437" s="5"/>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
@@ -6955,7 +7067,7 @@
       <c r="K438" s="4"/>
       <c r="L438" s="5"/>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
@@ -6969,7 +7081,7 @@
       <c r="K439" s="4"/>
       <c r="L439" s="5"/>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
@@ -6983,7 +7095,7 @@
       <c r="K440" s="4"/>
       <c r="L440" s="5"/>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:12">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
@@ -6997,7 +7109,7 @@
       <c r="K441" s="4"/>
       <c r="L441" s="5"/>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
@@ -7011,7 +7123,7 @@
       <c r="K442" s="4"/>
       <c r="L442" s="5"/>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
@@ -7025,7 +7137,7 @@
       <c r="K443" s="4"/>
       <c r="L443" s="5"/>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
@@ -7039,7 +7151,7 @@
       <c r="K444" s="4"/>
       <c r="L444" s="5"/>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
@@ -7053,7 +7165,7 @@
       <c r="K445" s="4"/>
       <c r="L445" s="5"/>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
@@ -7067,7 +7179,7 @@
       <c r="K446" s="4"/>
       <c r="L446" s="5"/>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
@@ -7081,7 +7193,7 @@
       <c r="K447" s="4"/>
       <c r="L447" s="5"/>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:12">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
@@ -7095,7 +7207,7 @@
       <c r="K448" s="4"/>
       <c r="L448" s="5"/>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:12">
       <c r="A449" s="5"/>
       <c r="B449" s="5"/>
       <c r="C449" s="5"/>
@@ -7109,7 +7221,7 @@
       <c r="K449" s="4"/>
       <c r="L449" s="5"/>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12">
       <c r="A450" s="5"/>
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
@@ -7123,7 +7235,7 @@
       <c r="K450" s="4"/>
       <c r="L450" s="5"/>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:12">
       <c r="A451" s="5"/>
       <c r="B451" s="5"/>
       <c r="C451" s="5"/>
@@ -7137,7 +7249,7 @@
       <c r="K451" s="4"/>
       <c r="L451" s="5"/>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:12">
       <c r="A452" s="5"/>
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
@@ -7151,7 +7263,7 @@
       <c r="K452" s="4"/>
       <c r="L452" s="5"/>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:12">
       <c r="A453" s="5"/>
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
@@ -7165,7 +7277,7 @@
       <c r="K453" s="4"/>
       <c r="L453" s="5"/>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:12">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
@@ -7179,7 +7291,7 @@
       <c r="K454" s="4"/>
       <c r="L454" s="5"/>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:12">
       <c r="A455" s="5"/>
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
@@ -7193,7 +7305,7 @@
       <c r="K455" s="4"/>
       <c r="L455" s="5"/>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:12">
       <c r="A456" s="5"/>
       <c r="B456" s="5"/>
       <c r="C456" s="5"/>
@@ -7207,7 +7319,7 @@
       <c r="K456" s="4"/>
       <c r="L456" s="5"/>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:12">
       <c r="A457" s="5"/>
       <c r="B457" s="5"/>
       <c r="C457" s="5"/>
@@ -7221,7 +7333,7 @@
       <c r="K457" s="4"/>
       <c r="L457" s="5"/>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:12">
       <c r="A458" s="5"/>
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
@@ -7235,7 +7347,7 @@
       <c r="K458" s="4"/>
       <c r="L458" s="5"/>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:12">
       <c r="A459" s="5"/>
       <c r="B459" s="5"/>
       <c r="C459" s="5"/>
@@ -7249,7 +7361,7 @@
       <c r="K459" s="4"/>
       <c r="L459" s="5"/>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:12">
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
@@ -7263,7 +7375,7 @@
       <c r="K460" s="4"/>
       <c r="L460" s="5"/>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:12">
       <c r="A461" s="5"/>
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
@@ -7277,7 +7389,7 @@
       <c r="K461" s="4"/>
       <c r="L461" s="5"/>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:12">
       <c r="A462" s="5"/>
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
@@ -7291,7 +7403,7 @@
       <c r="K462" s="4"/>
       <c r="L462" s="5"/>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:12">
       <c r="A463" s="5"/>
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
@@ -7305,7 +7417,7 @@
       <c r="K463" s="4"/>
       <c r="L463" s="5"/>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:12">
       <c r="A464" s="5"/>
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
@@ -7319,7 +7431,7 @@
       <c r="K464" s="4"/>
       <c r="L464" s="5"/>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12">
       <c r="A465" s="5"/>
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
@@ -7333,7 +7445,7 @@
       <c r="K465" s="4"/>
       <c r="L465" s="5"/>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12">
       <c r="A466" s="5"/>
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
@@ -7347,7 +7459,7 @@
       <c r="K466" s="4"/>
       <c r="L466" s="5"/>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12">
       <c r="A467" s="5"/>
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
@@ -7361,7 +7473,7 @@
       <c r="K467" s="4"/>
       <c r="L467" s="5"/>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12">
       <c r="A468" s="5"/>
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
@@ -7375,7 +7487,7 @@
       <c r="K468" s="4"/>
       <c r="L468" s="5"/>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12">
       <c r="A469" s="5"/>
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
@@ -7389,7 +7501,7 @@
       <c r="K469" s="4"/>
       <c r="L469" s="5"/>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12">
       <c r="A470" s="5"/>
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
@@ -7403,7 +7515,7 @@
       <c r="K470" s="4"/>
       <c r="L470" s="5"/>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12">
       <c r="A471" s="5"/>
       <c r="B471" s="5"/>
       <c r="C471" s="5"/>
@@ -7417,7 +7529,7 @@
       <c r="K471" s="4"/>
       <c r="L471" s="5"/>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12">
       <c r="A472" s="5"/>
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
@@ -7431,7 +7543,7 @@
       <c r="K472" s="4"/>
       <c r="L472" s="5"/>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12">
       <c r="A473" s="5"/>
       <c r="B473" s="5"/>
       <c r="C473" s="5"/>
@@ -7445,7 +7557,7 @@
       <c r="K473" s="4"/>
       <c r="L473" s="5"/>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12">
       <c r="A474" s="5"/>
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
@@ -7459,7 +7571,7 @@
       <c r="K474" s="4"/>
       <c r="L474" s="5"/>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12">
       <c r="A475" s="5"/>
       <c r="B475" s="5"/>
       <c r="C475" s="5"/>
@@ -7473,7 +7585,7 @@
       <c r="K475" s="4"/>
       <c r="L475" s="5"/>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12">
       <c r="A476" s="5"/>
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
@@ -7487,7 +7599,7 @@
       <c r="K476" s="4"/>
       <c r="L476" s="5"/>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12">
       <c r="A477" s="5"/>
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
@@ -7501,7 +7613,7 @@
       <c r="K477" s="4"/>
       <c r="L477" s="5"/>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12">
       <c r="A478" s="5"/>
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
@@ -7515,7 +7627,7 @@
       <c r="K478" s="4"/>
       <c r="L478" s="5"/>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12">
       <c r="A479" s="5"/>
       <c r="B479" s="5"/>
       <c r="C479" s="5"/>
@@ -7529,7 +7641,7 @@
       <c r="K479" s="4"/>
       <c r="L479" s="5"/>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12">
       <c r="A480" s="5"/>
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
@@ -7543,7 +7655,7 @@
       <c r="K480" s="4"/>
       <c r="L480" s="5"/>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12">
       <c r="A481" s="5"/>
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
@@ -7557,7 +7669,7 @@
       <c r="K481" s="4"/>
       <c r="L481" s="5"/>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12">
       <c r="A482" s="5"/>
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
@@ -7571,7 +7683,7 @@
       <c r="K482" s="4"/>
       <c r="L482" s="5"/>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12">
       <c r="A483" s="5"/>
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
@@ -7585,7 +7697,7 @@
       <c r="K483" s="4"/>
       <c r="L483" s="5"/>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12">
       <c r="A484" s="5"/>
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
@@ -7599,7 +7711,7 @@
       <c r="K484" s="4"/>
       <c r="L484" s="5"/>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12">
       <c r="A485" s="5"/>
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
@@ -7613,7 +7725,7 @@
       <c r="K485" s="4"/>
       <c r="L485" s="5"/>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12">
       <c r="A486" s="5"/>
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
@@ -7627,7 +7739,7 @@
       <c r="K486" s="4"/>
       <c r="L486" s="5"/>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12">
       <c r="A487" s="5"/>
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
@@ -7641,7 +7753,7 @@
       <c r="K487" s="4"/>
       <c r="L487" s="5"/>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12">
       <c r="A488" s="5"/>
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
@@ -7655,7 +7767,7 @@
       <c r="K488" s="4"/>
       <c r="L488" s="5"/>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12">
       <c r="A489" s="5"/>
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
@@ -7669,7 +7781,7 @@
       <c r="K489" s="4"/>
       <c r="L489" s="5"/>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12">
       <c r="A490" s="5"/>
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
@@ -7683,7 +7795,7 @@
       <c r="K490" s="4"/>
       <c r="L490" s="5"/>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12">
       <c r="A491" s="5"/>
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
@@ -7697,7 +7809,7 @@
       <c r="K491" s="4"/>
       <c r="L491" s="5"/>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12">
       <c r="A492" s="5"/>
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
@@ -7711,7 +7823,7 @@
       <c r="K492" s="4"/>
       <c r="L492" s="5"/>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12">
       <c r="A493" s="5"/>
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
@@ -7725,7 +7837,7 @@
       <c r="K493" s="4"/>
       <c r="L493" s="5"/>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12">
       <c r="A494" s="5"/>
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
@@ -7739,7 +7851,7 @@
       <c r="K494" s="4"/>
       <c r="L494" s="5"/>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:12">
       <c r="A495" s="5"/>
       <c r="B495" s="5"/>
       <c r="C495" s="5"/>
@@ -7753,7 +7865,7 @@
       <c r="K495" s="4"/>
       <c r="L495" s="5"/>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12">
       <c r="A496" s="5"/>
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
@@ -7767,7 +7879,7 @@
       <c r="K496" s="4"/>
       <c r="L496" s="5"/>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:12">
       <c r="A497" s="5"/>
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
@@ -7781,7 +7893,7 @@
       <c r="K497" s="4"/>
       <c r="L497" s="5"/>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:12">
       <c r="A498" s="5"/>
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
@@ -7795,7 +7907,7 @@
       <c r="K498" s="4"/>
       <c r="L498" s="5"/>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:12">
       <c r="A499" s="5"/>
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
@@ -7809,7 +7921,7 @@
       <c r="K499" s="4"/>
       <c r="L499" s="5"/>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:12">
       <c r="A500" s="5"/>
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
@@ -7823,7 +7935,7 @@
       <c r="K500" s="4"/>
       <c r="L500" s="5"/>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:12">
       <c r="A501" s="5"/>
       <c r="B501" s="5"/>
       <c r="C501" s="5"/>
@@ -7837,7 +7949,7 @@
       <c r="K501" s="4"/>
       <c r="L501" s="5"/>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:12">
       <c r="A502" s="5"/>
       <c r="B502" s="5"/>
       <c r="C502" s="5"/>
@@ -7851,7 +7963,7 @@
       <c r="K502" s="4"/>
       <c r="L502" s="5"/>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:12">
       <c r="A503" s="5"/>
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
@@ -7865,7 +7977,7 @@
       <c r="K503" s="4"/>
       <c r="L503" s="5"/>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:12">
       <c r="A504" s="5"/>
       <c r="B504" s="5"/>
       <c r="C504" s="5"/>
@@ -7879,7 +7991,7 @@
       <c r="K504" s="4"/>
       <c r="L504" s="5"/>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:12">
       <c r="A505" s="5"/>
       <c r="B505" s="5"/>
       <c r="C505" s="5"/>
@@ -7893,7 +8005,7 @@
       <c r="K505" s="4"/>
       <c r="L505" s="5"/>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:12">
       <c r="A506" s="5"/>
       <c r="B506" s="5"/>
       <c r="C506" s="5"/>
@@ -7907,7 +8019,7 @@
       <c r="K506" s="4"/>
       <c r="L506" s="5"/>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:12">
       <c r="A507" s="5"/>
       <c r="B507" s="5"/>
       <c r="C507" s="5"/>
@@ -7921,7 +8033,7 @@
       <c r="K507" s="4"/>
       <c r="L507" s="5"/>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:12">
       <c r="A508" s="5"/>
       <c r="B508" s="5"/>
       <c r="C508" s="5"/>
@@ -7935,7 +8047,7 @@
       <c r="K508" s="4"/>
       <c r="L508" s="5"/>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:12">
       <c r="A509" s="5"/>
       <c r="B509" s="5"/>
       <c r="C509" s="5"/>
@@ -7949,7 +8061,7 @@
       <c r="K509" s="4"/>
       <c r="L509" s="5"/>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:12">
       <c r="A510" s="5"/>
       <c r="B510" s="5"/>
       <c r="C510" s="5"/>
@@ -7963,7 +8075,7 @@
       <c r="K510" s="4"/>
       <c r="L510" s="5"/>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:12">
       <c r="A511" s="5"/>
       <c r="B511" s="5"/>
       <c r="C511" s="5"/>
@@ -7977,7 +8089,7 @@
       <c r="K511" s="4"/>
       <c r="L511" s="5"/>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:12">
       <c r="A512" s="5"/>
       <c r="B512" s="5"/>
       <c r="C512" s="5"/>
@@ -7991,7 +8103,7 @@
       <c r="K512" s="4"/>
       <c r="L512" s="5"/>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:12">
       <c r="A513" s="5"/>
       <c r="B513" s="5"/>
       <c r="C513" s="5"/>
@@ -8005,7 +8117,7 @@
       <c r="K513" s="4"/>
       <c r="L513" s="5"/>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:12">
       <c r="A514" s="5"/>
       <c r="B514" s="5"/>
       <c r="C514" s="5"/>
@@ -8019,7 +8131,7 @@
       <c r="K514" s="4"/>
       <c r="L514" s="5"/>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:12">
       <c r="A515" s="5"/>
       <c r="B515" s="5"/>
       <c r="C515" s="5"/>
@@ -8033,7 +8145,7 @@
       <c r="K515" s="4"/>
       <c r="L515" s="5"/>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:12">
       <c r="A516" s="5"/>
       <c r="B516" s="5"/>
       <c r="C516" s="5"/>
@@ -8047,7 +8159,7 @@
       <c r="K516" s="4"/>
       <c r="L516" s="5"/>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:12">
       <c r="A517" s="5"/>
       <c r="B517" s="5"/>
       <c r="C517" s="5"/>
@@ -8061,7 +8173,7 @@
       <c r="K517" s="4"/>
       <c r="L517" s="5"/>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:12">
       <c r="A518" s="5"/>
       <c r="B518" s="5"/>
       <c r="C518" s="5"/>
@@ -8075,7 +8187,7 @@
       <c r="K518" s="4"/>
       <c r="L518" s="5"/>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:12">
       <c r="A519" s="5"/>
       <c r="B519" s="5"/>
       <c r="C519" s="5"/>
@@ -8089,7 +8201,7 @@
       <c r="K519" s="4"/>
       <c r="L519" s="5"/>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:12">
       <c r="A520" s="5"/>
       <c r="B520" s="5"/>
       <c r="C520" s="5"/>
@@ -8103,7 +8215,7 @@
       <c r="K520" s="4"/>
       <c r="L520" s="5"/>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:12">
       <c r="A521" s="5"/>
       <c r="B521" s="5"/>
       <c r="C521" s="5"/>
@@ -8117,7 +8229,7 @@
       <c r="K521" s="4"/>
       <c r="L521" s="5"/>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:12">
       <c r="A522" s="5"/>
       <c r="B522" s="5"/>
       <c r="C522" s="5"/>
@@ -8131,7 +8243,7 @@
       <c r="K522" s="4"/>
       <c r="L522" s="5"/>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:12">
       <c r="A523" s="5"/>
       <c r="B523" s="5"/>
       <c r="C523" s="5"/>
@@ -8145,7 +8257,7 @@
       <c r="K523" s="4"/>
       <c r="L523" s="5"/>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:12">
       <c r="A524" s="5"/>
       <c r="B524" s="5"/>
       <c r="C524" s="5"/>
@@ -8159,7 +8271,7 @@
       <c r="K524" s="4"/>
       <c r="L524" s="5"/>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:12">
       <c r="A525" s="5"/>
       <c r="B525" s="5"/>
       <c r="C525" s="5"/>
@@ -8173,7 +8285,7 @@
       <c r="K525" s="4"/>
       <c r="L525" s="5"/>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:12">
       <c r="A526" s="5"/>
       <c r="B526" s="5"/>
       <c r="C526" s="5"/>
@@ -8187,7 +8299,7 @@
       <c r="K526" s="4"/>
       <c r="L526" s="5"/>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:12">
       <c r="A527" s="5"/>
       <c r="B527" s="5"/>
       <c r="C527" s="5"/>
@@ -8201,7 +8313,7 @@
       <c r="K527" s="4"/>
       <c r="L527" s="5"/>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:12">
       <c r="A528" s="5"/>
       <c r="B528" s="5"/>
       <c r="C528" s="5"/>
@@ -8215,7 +8327,7 @@
       <c r="K528" s="4"/>
       <c r="L528" s="5"/>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:12">
       <c r="A529" s="5"/>
       <c r="B529" s="5"/>
       <c r="C529" s="5"/>
@@ -8229,7 +8341,7 @@
       <c r="K529" s="4"/>
       <c r="L529" s="5"/>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:12">
       <c r="A530" s="5"/>
       <c r="B530" s="5"/>
       <c r="C530" s="5"/>
@@ -8243,7 +8355,7 @@
       <c r="K530" s="4"/>
       <c r="L530" s="5"/>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:12">
       <c r="A531" s="5"/>
       <c r="B531" s="5"/>
       <c r="C531" s="5"/>
@@ -8257,7 +8369,7 @@
       <c r="K531" s="4"/>
       <c r="L531" s="5"/>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:12">
       <c r="A532" s="5"/>
       <c r="B532" s="5"/>
       <c r="C532" s="5"/>
@@ -8271,7 +8383,7 @@
       <c r="K532" s="4"/>
       <c r="L532" s="5"/>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:12">
       <c r="A533" s="5"/>
       <c r="B533" s="5"/>
       <c r="C533" s="5"/>
@@ -8285,7 +8397,7 @@
       <c r="K533" s="4"/>
       <c r="L533" s="5"/>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:12">
       <c r="A534" s="5"/>
       <c r="B534" s="5"/>
       <c r="C534" s="5"/>
@@ -8299,7 +8411,7 @@
       <c r="K534" s="4"/>
       <c r="L534" s="5"/>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:12">
       <c r="A535" s="5"/>
       <c r="B535" s="5"/>
       <c r="C535" s="5"/>
@@ -8313,7 +8425,7 @@
       <c r="K535" s="4"/>
       <c r="L535" s="5"/>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:12">
       <c r="A536" s="5"/>
       <c r="B536" s="5"/>
       <c r="C536" s="5"/>
@@ -8327,7 +8439,7 @@
       <c r="K536" s="4"/>
       <c r="L536" s="5"/>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:12">
       <c r="A537" s="5"/>
       <c r="B537" s="5"/>
       <c r="C537" s="5"/>
@@ -8341,7 +8453,7 @@
       <c r="K537" s="4"/>
       <c r="L537" s="5"/>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:12">
       <c r="A538" s="5"/>
       <c r="B538" s="5"/>
       <c r="C538" s="5"/>
@@ -8355,7 +8467,7 @@
       <c r="K538" s="4"/>
       <c r="L538" s="5"/>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:12">
       <c r="A539" s="5"/>
       <c r="B539" s="5"/>
       <c r="C539" s="5"/>
@@ -8369,7 +8481,7 @@
       <c r="K539" s="4"/>
       <c r="L539" s="5"/>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:12">
       <c r="A540" s="5"/>
       <c r="B540" s="5"/>
       <c r="C540" s="5"/>
@@ -8383,7 +8495,7 @@
       <c r="K540" s="4"/>
       <c r="L540" s="5"/>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:12">
       <c r="A541" s="5"/>
       <c r="B541" s="5"/>
       <c r="C541" s="5"/>
@@ -8397,7 +8509,7 @@
       <c r="K541" s="4"/>
       <c r="L541" s="5"/>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:12">
       <c r="A542" s="5"/>
       <c r="B542" s="5"/>
       <c r="C542" s="5"/>
@@ -8411,7 +8523,7 @@
       <c r="K542" s="4"/>
       <c r="L542" s="5"/>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:12">
       <c r="A543" s="5"/>
       <c r="B543" s="5"/>
       <c r="C543" s="5"/>
@@ -8425,7 +8537,7 @@
       <c r="K543" s="4"/>
       <c r="L543" s="5"/>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:12">
       <c r="A544" s="5"/>
       <c r="B544" s="5"/>
       <c r="C544" s="5"/>
@@ -8439,7 +8551,7 @@
       <c r="K544" s="4"/>
       <c r="L544" s="5"/>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:12">
       <c r="A545" s="5"/>
       <c r="B545" s="5"/>
       <c r="C545" s="5"/>
@@ -8453,7 +8565,7 @@
       <c r="K545" s="4"/>
       <c r="L545" s="5"/>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:12">
       <c r="A546" s="5"/>
       <c r="B546" s="5"/>
       <c r="C546" s="5"/>
@@ -8467,7 +8579,7 @@
       <c r="K546" s="4"/>
       <c r="L546" s="5"/>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:12">
       <c r="A547" s="5"/>
       <c r="B547" s="5"/>
       <c r="C547" s="5"/>
@@ -8481,7 +8593,7 @@
       <c r="K547" s="4"/>
       <c r="L547" s="5"/>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:12">
       <c r="A548" s="5"/>
       <c r="B548" s="5"/>
       <c r="C548" s="5"/>
@@ -8495,7 +8607,7 @@
       <c r="K548" s="4"/>
       <c r="L548" s="5"/>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:12">
       <c r="A549" s="5"/>
       <c r="B549" s="5"/>
       <c r="C549" s="5"/>
@@ -8509,7 +8621,7 @@
       <c r="K549" s="4"/>
       <c r="L549" s="5"/>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:12">
       <c r="A550" s="5"/>
       <c r="B550" s="5"/>
       <c r="C550" s="5"/>
@@ -8523,7 +8635,7 @@
       <c r="K550" s="4"/>
       <c r="L550" s="5"/>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:12">
       <c r="A551" s="5"/>
       <c r="B551" s="5"/>
       <c r="C551" s="5"/>
@@ -8537,7 +8649,7 @@
       <c r="K551" s="4"/>
       <c r="L551" s="5"/>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:12">
       <c r="A552" s="5"/>
       <c r="B552" s="5"/>
       <c r="C552" s="5"/>
@@ -8551,7 +8663,7 @@
       <c r="K552" s="4"/>
       <c r="L552" s="5"/>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:12">
       <c r="A553" s="5"/>
       <c r="B553" s="5"/>
       <c r="C553" s="5"/>
@@ -8565,7 +8677,7 @@
       <c r="K553" s="4"/>
       <c r="L553" s="5"/>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:12">
       <c r="A554" s="5"/>
       <c r="B554" s="5"/>
       <c r="C554" s="5"/>
@@ -8579,7 +8691,7 @@
       <c r="K554" s="4"/>
       <c r="L554" s="5"/>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:12">
       <c r="A555" s="5"/>
       <c r="B555" s="5"/>
       <c r="C555" s="5"/>
@@ -8593,7 +8705,7 @@
       <c r="K555" s="4"/>
       <c r="L555" s="5"/>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:12">
       <c r="A556" s="5"/>
       <c r="B556" s="5"/>
       <c r="C556" s="5"/>
@@ -8607,7 +8719,7 @@
       <c r="K556" s="4"/>
       <c r="L556" s="5"/>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:12">
       <c r="A557" s="5"/>
       <c r="B557" s="5"/>
       <c r="C557" s="5"/>
@@ -8621,7 +8733,7 @@
       <c r="K557" s="4"/>
       <c r="L557" s="5"/>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:12">
       <c r="A558" s="5"/>
       <c r="B558" s="5"/>
       <c r="C558" s="5"/>
@@ -8635,7 +8747,7 @@
       <c r="K558" s="4"/>
       <c r="L558" s="5"/>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:12">
       <c r="A559" s="5"/>
       <c r="B559" s="5"/>
       <c r="C559" s="5"/>
@@ -8649,7 +8761,7 @@
       <c r="K559" s="4"/>
       <c r="L559" s="5"/>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:12">
       <c r="A560" s="5"/>
       <c r="B560" s="5"/>
       <c r="C560" s="5"/>
@@ -8663,7 +8775,7 @@
       <c r="K560" s="4"/>
       <c r="L560" s="5"/>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:12">
       <c r="A561" s="5"/>
       <c r="B561" s="5"/>
       <c r="C561" s="5"/>
@@ -8677,7 +8789,7 @@
       <c r="K561" s="4"/>
       <c r="L561" s="5"/>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:12">
       <c r="A562" s="5"/>
       <c r="B562" s="5"/>
       <c r="C562" s="5"/>
@@ -8691,7 +8803,7 @@
       <c r="K562" s="4"/>
       <c r="L562" s="5"/>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:12">
       <c r="A563" s="5"/>
       <c r="B563" s="5"/>
       <c r="C563" s="5"/>
@@ -8705,7 +8817,7 @@
       <c r="K563" s="4"/>
       <c r="L563" s="5"/>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:12">
       <c r="A564" s="5"/>
       <c r="B564" s="5"/>
       <c r="C564" s="5"/>
@@ -8719,7 +8831,7 @@
       <c r="K564" s="4"/>
       <c r="L564" s="5"/>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:12">
       <c r="A565" s="5"/>
       <c r="B565" s="5"/>
       <c r="C565" s="5"/>
@@ -8733,7 +8845,7 @@
       <c r="K565" s="4"/>
       <c r="L565" s="5"/>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:12">
       <c r="A566" s="5"/>
       <c r="B566" s="5"/>
       <c r="C566" s="5"/>
@@ -8747,7 +8859,7 @@
       <c r="K566" s="4"/>
       <c r="L566" s="5"/>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:12">
       <c r="A567" s="5"/>
       <c r="B567" s="5"/>
       <c r="C567" s="5"/>
@@ -8761,7 +8873,7 @@
       <c r="K567" s="4"/>
       <c r="L567" s="5"/>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:12">
       <c r="A568" s="5"/>
       <c r="B568" s="5"/>
       <c r="C568" s="5"/>
@@ -8775,7 +8887,7 @@
       <c r="K568" s="4"/>
       <c r="L568" s="5"/>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:12">
       <c r="A569" s="5"/>
       <c r="B569" s="5"/>
       <c r="C569" s="5"/>
@@ -8789,7 +8901,7 @@
       <c r="K569" s="4"/>
       <c r="L569" s="5"/>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:12">
       <c r="A570" s="5"/>
       <c r="B570" s="5"/>
       <c r="C570" s="5"/>
@@ -8803,7 +8915,7 @@
       <c r="K570" s="4"/>
       <c r="L570" s="5"/>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:12">
       <c r="A571" s="5"/>
       <c r="B571" s="5"/>
       <c r="C571" s="5"/>
@@ -8817,7 +8929,7 @@
       <c r="K571" s="4"/>
       <c r="L571" s="5"/>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:12">
       <c r="A572" s="5"/>
       <c r="B572" s="5"/>
       <c r="C572" s="5"/>
@@ -8831,7 +8943,7 @@
       <c r="K572" s="4"/>
       <c r="L572" s="5"/>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:12">
       <c r="A573" s="5"/>
       <c r="B573" s="5"/>
       <c r="C573" s="5"/>
@@ -8845,7 +8957,7 @@
       <c r="K573" s="4"/>
       <c r="L573" s="5"/>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:12">
       <c r="A574" s="5"/>
       <c r="B574" s="5"/>
       <c r="C574" s="5"/>
@@ -8859,7 +8971,7 @@
       <c r="K574" s="4"/>
       <c r="L574" s="5"/>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:12">
       <c r="A575" s="5"/>
       <c r="B575" s="5"/>
       <c r="C575" s="5"/>
@@ -8873,7 +8985,7 @@
       <c r="K575" s="4"/>
       <c r="L575" s="5"/>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:12">
       <c r="A576" s="5"/>
       <c r="B576" s="5"/>
       <c r="C576" s="5"/>
@@ -8887,7 +8999,7 @@
       <c r="K576" s="4"/>
       <c r="L576" s="5"/>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:12">
       <c r="A577" s="5"/>
       <c r="B577" s="5"/>
       <c r="C577" s="5"/>
@@ -8901,7 +9013,7 @@
       <c r="K577" s="4"/>
       <c r="L577" s="5"/>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:12">
       <c r="A578" s="5"/>
       <c r="B578" s="5"/>
       <c r="C578" s="5"/>
@@ -8915,7 +9027,7 @@
       <c r="K578" s="4"/>
       <c r="L578" s="5"/>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:12">
       <c r="A579" s="5"/>
       <c r="B579" s="5"/>
       <c r="C579" s="5"/>
@@ -8929,7 +9041,7 @@
       <c r="K579" s="4"/>
       <c r="L579" s="5"/>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:12">
       <c r="A580" s="5"/>
       <c r="B580" s="5"/>
       <c r="C580" s="5"/>
@@ -8943,7 +9055,7 @@
       <c r="K580" s="4"/>
       <c r="L580" s="5"/>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:12">
       <c r="A581" s="5"/>
       <c r="B581" s="5"/>
       <c r="C581" s="5"/>
@@ -8957,7 +9069,7 @@
       <c r="K581" s="4"/>
       <c r="L581" s="5"/>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:12">
       <c r="A582" s="5"/>
       <c r="B582" s="5"/>
       <c r="C582" s="5"/>
@@ -8971,7 +9083,7 @@
       <c r="K582" s="4"/>
       <c r="L582" s="5"/>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:12">
       <c r="A583" s="5"/>
       <c r="B583" s="5"/>
       <c r="C583" s="5"/>
@@ -8985,7 +9097,7 @@
       <c r="K583" s="4"/>
       <c r="L583" s="5"/>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:12">
       <c r="A584" s="5"/>
       <c r="B584" s="5"/>
       <c r="C584" s="5"/>
@@ -8999,7 +9111,7 @@
       <c r="K584" s="4"/>
       <c r="L584" s="5"/>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:12">
       <c r="A585" s="5"/>
       <c r="B585" s="5"/>
       <c r="C585" s="5"/>
@@ -9013,7 +9125,7 @@
       <c r="K585" s="4"/>
       <c r="L585" s="5"/>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:12">
       <c r="A586" s="5"/>
       <c r="B586" s="5"/>
       <c r="C586" s="5"/>
@@ -9027,7 +9139,7 @@
       <c r="K586" s="4"/>
       <c r="L586" s="5"/>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:12">
       <c r="A587" s="5"/>
       <c r="B587" s="5"/>
       <c r="C587" s="5"/>
@@ -9041,7 +9153,7 @@
       <c r="K587" s="4"/>
       <c r="L587" s="5"/>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:12">
       <c r="A588" s="5"/>
       <c r="B588" s="5"/>
       <c r="C588" s="5"/>
@@ -9055,7 +9167,7 @@
       <c r="K588" s="4"/>
       <c r="L588" s="5"/>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:12">
       <c r="A589" s="5"/>
       <c r="B589" s="5"/>
       <c r="C589" s="5"/>
@@ -9069,7 +9181,7 @@
       <c r="K589" s="4"/>
       <c r="L589" s="5"/>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:12">
       <c r="A590" s="5"/>
       <c r="B590" s="5"/>
       <c r="C590" s="5"/>
@@ -9083,7 +9195,7 @@
       <c r="K590" s="4"/>
       <c r="L590" s="5"/>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:12">
       <c r="A591" s="5"/>
       <c r="B591" s="5"/>
       <c r="C591" s="5"/>
@@ -9097,7 +9209,7 @@
       <c r="K591" s="4"/>
       <c r="L591" s="5"/>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:12">
       <c r="A592" s="5"/>
       <c r="B592" s="5"/>
       <c r="C592" s="5"/>
@@ -9111,7 +9223,7 @@
       <c r="K592" s="4"/>
       <c r="L592" s="5"/>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:12">
       <c r="A593" s="5"/>
       <c r="B593" s="5"/>
       <c r="C593" s="5"/>
@@ -9125,7 +9237,7 @@
       <c r="K593" s="4"/>
       <c r="L593" s="5"/>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:12">
       <c r="A594" s="5"/>
       <c r="B594" s="5"/>
       <c r="C594" s="5"/>
@@ -9139,7 +9251,7 @@
       <c r="K594" s="4"/>
       <c r="L594" s="5"/>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:12">
       <c r="A595" s="5"/>
       <c r="B595" s="5"/>
       <c r="C595" s="5"/>
@@ -9153,7 +9265,7 @@
       <c r="K595" s="4"/>
       <c r="L595" s="5"/>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:12">
       <c r="A596" s="5"/>
       <c r="B596" s="5"/>
       <c r="C596" s="5"/>
@@ -9167,7 +9279,7 @@
       <c r="K596" s="4"/>
       <c r="L596" s="5"/>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:12">
       <c r="A597" s="5"/>
       <c r="B597" s="5"/>
       <c r="C597" s="5"/>
@@ -9181,7 +9293,7 @@
       <c r="K597" s="4"/>
       <c r="L597" s="5"/>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:12">
       <c r="A598" s="5"/>
       <c r="B598" s="5"/>
       <c r="C598" s="5"/>
@@ -9195,7 +9307,7 @@
       <c r="K598" s="4"/>
       <c r="L598" s="5"/>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:12">
       <c r="A599" s="5"/>
       <c r="B599" s="5"/>
       <c r="C599" s="5"/>
@@ -9209,7 +9321,7 @@
       <c r="K599" s="4"/>
       <c r="L599" s="5"/>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:12">
       <c r="A600" s="5"/>
       <c r="B600" s="5"/>
       <c r="C600" s="5"/>
@@ -9223,7 +9335,7 @@
       <c r="K600" s="4"/>
       <c r="L600" s="5"/>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:12">
       <c r="A601" s="5"/>
       <c r="B601" s="5"/>
       <c r="C601" s="5"/>
@@ -9237,7 +9349,7 @@
       <c r="K601" s="4"/>
       <c r="L601" s="5"/>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:12">
       <c r="A602" s="5"/>
       <c r="B602" s="5"/>
       <c r="C602" s="5"/>
@@ -9251,7 +9363,7 @@
       <c r="K602" s="4"/>
       <c r="L602" s="5"/>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:12">
       <c r="A603" s="5"/>
       <c r="B603" s="5"/>
       <c r="C603" s="5"/>
@@ -9265,7 +9377,7 @@
       <c r="K603" s="4"/>
       <c r="L603" s="5"/>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:12">
       <c r="A604" s="5"/>
       <c r="B604" s="5"/>
       <c r="C604" s="5"/>
@@ -9279,7 +9391,7 @@
       <c r="K604" s="4"/>
       <c r="L604" s="5"/>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:12">
       <c r="A605" s="5"/>
       <c r="B605" s="5"/>
       <c r="C605" s="5"/>
@@ -9293,7 +9405,7 @@
       <c r="K605" s="4"/>
       <c r="L605" s="5"/>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:12">
       <c r="A606" s="5"/>
       <c r="B606" s="5"/>
       <c r="C606" s="5"/>
@@ -9307,7 +9419,7 @@
       <c r="K606" s="4"/>
       <c r="L606" s="5"/>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:12">
       <c r="A607" s="5"/>
       <c r="B607" s="5"/>
       <c r="C607" s="5"/>
@@ -9321,7 +9433,7 @@
       <c r="K607" s="4"/>
       <c r="L607" s="5"/>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:12">
       <c r="A608" s="5"/>
       <c r="B608" s="5"/>
       <c r="C608" s="5"/>
@@ -9335,7 +9447,7 @@
       <c r="K608" s="4"/>
       <c r="L608" s="5"/>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:12">
       <c r="A609" s="5"/>
       <c r="B609" s="5"/>
       <c r="C609" s="5"/>
@@ -9349,7 +9461,7 @@
       <c r="K609" s="4"/>
       <c r="L609" s="5"/>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:12">
       <c r="A610" s="5"/>
       <c r="B610" s="5"/>
       <c r="C610" s="5"/>
@@ -9363,7 +9475,7 @@
       <c r="K610" s="4"/>
       <c r="L610" s="5"/>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:12">
       <c r="A611" s="5"/>
       <c r="B611" s="5"/>
       <c r="C611" s="5"/>
@@ -9377,7 +9489,7 @@
       <c r="K611" s="4"/>
       <c r="L611" s="5"/>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:12">
       <c r="A612" s="5"/>
       <c r="B612" s="5"/>
       <c r="C612" s="5"/>
@@ -9391,7 +9503,7 @@
       <c r="K612" s="4"/>
       <c r="L612" s="5"/>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:12">
       <c r="A613" s="5"/>
       <c r="B613" s="5"/>
       <c r="C613" s="5"/>
@@ -9405,7 +9517,7 @@
       <c r="K613" s="4"/>
       <c r="L613" s="5"/>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:12">
       <c r="A614" s="5"/>
       <c r="B614" s="5"/>
       <c r="C614" s="5"/>
@@ -9419,7 +9531,7 @@
       <c r="K614" s="4"/>
       <c r="L614" s="5"/>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:12">
       <c r="A615" s="5"/>
       <c r="B615" s="5"/>
       <c r="C615" s="5"/>
@@ -9433,7 +9545,7 @@
       <c r="K615" s="4"/>
       <c r="L615" s="5"/>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:12">
       <c r="A616" s="5"/>
       <c r="B616" s="5"/>
       <c r="C616" s="5"/>
@@ -9447,7 +9559,7 @@
       <c r="K616" s="4"/>
       <c r="L616" s="5"/>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:12">
       <c r="A617" s="5"/>
       <c r="B617" s="5"/>
       <c r="C617" s="5"/>
@@ -9461,7 +9573,7 @@
       <c r="K617" s="4"/>
       <c r="L617" s="5"/>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:12">
       <c r="A618" s="5"/>
       <c r="B618" s="5"/>
       <c r="C618" s="5"/>
@@ -9475,7 +9587,7 @@
       <c r="K618" s="4"/>
       <c r="L618" s="5"/>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:12">
       <c r="A619" s="5"/>
       <c r="B619" s="5"/>
       <c r="C619" s="5"/>
@@ -9489,7 +9601,7 @@
       <c r="K619" s="4"/>
       <c r="L619" s="5"/>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:12">
       <c r="A620" s="5"/>
       <c r="B620" s="5"/>
       <c r="C620" s="5"/>
@@ -9503,7 +9615,7 @@
       <c r="K620" s="4"/>
       <c r="L620" s="5"/>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:12">
       <c r="A621" s="5"/>
       <c r="B621" s="5"/>
       <c r="C621" s="5"/>
@@ -9517,7 +9629,7 @@
       <c r="K621" s="4"/>
       <c r="L621" s="5"/>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:12">
       <c r="A622" s="5"/>
       <c r="B622" s="5"/>
       <c r="C622" s="5"/>
@@ -9531,7 +9643,7 @@
       <c r="K622" s="4"/>
       <c r="L622" s="5"/>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:12">
       <c r="A623" s="5"/>
       <c r="B623" s="5"/>
       <c r="C623" s="5"/>
@@ -9545,7 +9657,7 @@
       <c r="K623" s="4"/>
       <c r="L623" s="5"/>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:12">
       <c r="A624" s="5"/>
       <c r="B624" s="5"/>
       <c r="C624" s="5"/>
@@ -9559,7 +9671,7 @@
       <c r="K624" s="4"/>
       <c r="L624" s="5"/>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:12">
       <c r="A625" s="5"/>
       <c r="B625" s="5"/>
       <c r="C625" s="5"/>
@@ -9573,7 +9685,7 @@
       <c r="K625" s="4"/>
       <c r="L625" s="5"/>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:12">
       <c r="A626" s="5"/>
       <c r="B626" s="5"/>
       <c r="C626" s="5"/>
@@ -9587,7 +9699,7 @@
       <c r="K626" s="4"/>
       <c r="L626" s="5"/>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:12">
       <c r="A627" s="5"/>
       <c r="B627" s="5"/>
       <c r="C627" s="5"/>
@@ -9601,7 +9713,7 @@
       <c r="K627" s="4"/>
       <c r="L627" s="5"/>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:12">
       <c r="A628" s="5"/>
       <c r="B628" s="5"/>
       <c r="C628" s="5"/>
@@ -9615,7 +9727,7 @@
       <c r="K628" s="4"/>
       <c r="L628" s="5"/>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:12">
       <c r="A629" s="5"/>
       <c r="B629" s="5"/>
       <c r="C629" s="5"/>
@@ -9629,7 +9741,7 @@
       <c r="K629" s="4"/>
       <c r="L629" s="5"/>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:12">
       <c r="A630" s="5"/>
       <c r="B630" s="5"/>
       <c r="C630" s="5"/>
@@ -9643,7 +9755,7 @@
       <c r="K630" s="4"/>
       <c r="L630" s="5"/>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:12">
       <c r="A631" s="5"/>
       <c r="B631" s="5"/>
       <c r="C631" s="5"/>
@@ -9657,7 +9769,7 @@
       <c r="K631" s="4"/>
       <c r="L631" s="5"/>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:12">
       <c r="A632" s="5"/>
       <c r="B632" s="5"/>
       <c r="C632" s="5"/>
@@ -9671,7 +9783,7 @@
       <c r="K632" s="4"/>
       <c r="L632" s="5"/>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:12">
       <c r="A633" s="5"/>
       <c r="B633" s="5"/>
       <c r="C633" s="5"/>
@@ -9685,7 +9797,7 @@
       <c r="K633" s="4"/>
       <c r="L633" s="5"/>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:12">
       <c r="A634" s="5"/>
       <c r="B634" s="5"/>
       <c r="C634" s="5"/>
@@ -9699,7 +9811,7 @@
       <c r="K634" s="4"/>
       <c r="L634" s="5"/>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:12">
       <c r="A635" s="5"/>
       <c r="B635" s="5"/>
       <c r="C635" s="5"/>
@@ -9713,7 +9825,7 @@
       <c r="K635" s="4"/>
       <c r="L635" s="5"/>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:12">
       <c r="A636" s="5"/>
       <c r="B636" s="5"/>
       <c r="C636" s="5"/>
@@ -9727,7 +9839,7 @@
       <c r="K636" s="4"/>
       <c r="L636" s="5"/>
     </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:12">
       <c r="A637" s="5"/>
       <c r="B637" s="5"/>
       <c r="C637" s="5"/>
@@ -9741,7 +9853,7 @@
       <c r="K637" s="4"/>
       <c r="L637" s="5"/>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:12">
       <c r="A638" s="5"/>
       <c r="B638" s="5"/>
       <c r="C638" s="5"/>
@@ -9755,7 +9867,7 @@
       <c r="K638" s="4"/>
       <c r="L638" s="5"/>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:12">
       <c r="A639" s="5"/>
       <c r="B639" s="5"/>
       <c r="C639" s="5"/>
@@ -9769,7 +9881,7 @@
       <c r="K639" s="4"/>
       <c r="L639" s="5"/>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:12">
       <c r="A640" s="5"/>
       <c r="B640" s="5"/>
       <c r="C640" s="5"/>
@@ -9783,7 +9895,7 @@
       <c r="K640" s="4"/>
       <c r="L640" s="5"/>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:12">
       <c r="A641" s="5"/>
       <c r="B641" s="5"/>
       <c r="C641" s="5"/>
@@ -9797,7 +9909,7 @@
       <c r="K641" s="4"/>
       <c r="L641" s="5"/>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:12">
       <c r="A642" s="5"/>
       <c r="B642" s="5"/>
       <c r="C642" s="5"/>
@@ -9811,7 +9923,7 @@
       <c r="K642" s="4"/>
       <c r="L642" s="5"/>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:12">
       <c r="A643" s="5"/>
       <c r="B643" s="5"/>
       <c r="C643" s="5"/>
@@ -9825,7 +9937,7 @@
       <c r="K643" s="4"/>
       <c r="L643" s="5"/>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:12">
       <c r="A644" s="5"/>
       <c r="B644" s="5"/>
       <c r="C644" s="5"/>
@@ -9839,7 +9951,7 @@
       <c r="K644" s="4"/>
       <c r="L644" s="5"/>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:12">
       <c r="A645" s="5"/>
       <c r="B645" s="5"/>
       <c r="C645" s="5"/>
@@ -9853,7 +9965,7 @@
       <c r="K645" s="4"/>
       <c r="L645" s="5"/>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:12">
       <c r="A646" s="5"/>
       <c r="B646" s="5"/>
       <c r="C646" s="5"/>
@@ -9867,7 +9979,7 @@
       <c r="K646" s="4"/>
       <c r="L646" s="5"/>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:12">
       <c r="A647" s="5"/>
       <c r="B647" s="5"/>
       <c r="C647" s="5"/>
@@ -9881,7 +9993,7 @@
       <c r="K647" s="4"/>
       <c r="L647" s="5"/>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:12">
       <c r="A648" s="5"/>
       <c r="B648" s="5"/>
       <c r="C648" s="5"/>
@@ -9895,7 +10007,7 @@
       <c r="K648" s="4"/>
       <c r="L648" s="5"/>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:12">
       <c r="A649" s="5"/>
       <c r="B649" s="5"/>
       <c r="C649" s="5"/>
@@ -9909,7 +10021,7 @@
       <c r="K649" s="4"/>
       <c r="L649" s="5"/>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:12">
       <c r="A650" s="5"/>
       <c r="B650" s="5"/>
       <c r="C650" s="5"/>
@@ -9923,7 +10035,7 @@
       <c r="K650" s="4"/>
       <c r="L650" s="5"/>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:12">
       <c r="A651" s="5"/>
       <c r="B651" s="5"/>
       <c r="C651" s="5"/>
@@ -9937,7 +10049,7 @@
       <c r="K651" s="4"/>
       <c r="L651" s="5"/>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:12">
       <c r="A652" s="5"/>
       <c r="B652" s="5"/>
       <c r="C652" s="5"/>
@@ -9951,7 +10063,7 @@
       <c r="K652" s="4"/>
       <c r="L652" s="5"/>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:12">
       <c r="A653" s="5"/>
       <c r="B653" s="5"/>
       <c r="C653" s="5"/>
@@ -9965,7 +10077,7 @@
       <c r="K653" s="4"/>
       <c r="L653" s="5"/>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:12">
       <c r="A654" s="5"/>
       <c r="B654" s="5"/>
       <c r="C654" s="5"/>
@@ -9979,7 +10091,7 @@
       <c r="K654" s="4"/>
       <c r="L654" s="5"/>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:12">
       <c r="A655" s="5"/>
       <c r="B655" s="5"/>
       <c r="C655" s="5"/>
@@ -9993,7 +10105,7 @@
       <c r="K655" s="4"/>
       <c r="L655" s="5"/>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:12">
       <c r="A656" s="5"/>
       <c r="B656" s="5"/>
       <c r="C656" s="5"/>
@@ -10007,7 +10119,7 @@
       <c r="K656" s="4"/>
       <c r="L656" s="5"/>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:12">
       <c r="A657" s="5"/>
       <c r="B657" s="5"/>
       <c r="C657" s="5"/>
@@ -10021,7 +10133,7 @@
       <c r="K657" s="4"/>
       <c r="L657" s="5"/>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:12">
       <c r="A658" s="5"/>
       <c r="B658" s="5"/>
       <c r="C658" s="5"/>
@@ -10035,7 +10147,7 @@
       <c r="K658" s="4"/>
       <c r="L658" s="5"/>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:12">
       <c r="A659" s="5"/>
       <c r="B659" s="5"/>
       <c r="C659" s="5"/>
@@ -10049,7 +10161,7 @@
       <c r="K659" s="4"/>
       <c r="L659" s="5"/>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:12">
       <c r="A660" s="5"/>
       <c r="B660" s="5"/>
       <c r="C660" s="5"/>
@@ -10063,7 +10175,7 @@
       <c r="K660" s="4"/>
       <c r="L660" s="5"/>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:12">
       <c r="A661" s="5"/>
       <c r="B661" s="5"/>
       <c r="C661" s="5"/>
@@ -10077,7 +10189,7 @@
       <c r="K661" s="4"/>
       <c r="L661" s="5"/>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:12">
       <c r="A662" s="5"/>
       <c r="B662" s="5"/>
       <c r="C662" s="5"/>
@@ -10091,7 +10203,7 @@
       <c r="K662" s="4"/>
       <c r="L662" s="5"/>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:12">
       <c r="A663" s="5"/>
       <c r="B663" s="5"/>
       <c r="C663" s="5"/>
@@ -10105,7 +10217,7 @@
       <c r="K663" s="4"/>
       <c r="L663" s="5"/>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:12">
       <c r="A664" s="5"/>
       <c r="B664" s="5"/>
       <c r="C664" s="5"/>
@@ -10119,7 +10231,7 @@
       <c r="K664" s="4"/>
       <c r="L664" s="5"/>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:12">
       <c r="A665" s="5"/>
       <c r="B665" s="5"/>
       <c r="C665" s="5"/>
@@ -10133,7 +10245,7 @@
       <c r="K665" s="4"/>
       <c r="L665" s="5"/>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:12">
       <c r="A666" s="5"/>
       <c r="B666" s="5"/>
       <c r="C666" s="5"/>
@@ -10147,7 +10259,7 @@
       <c r="K666" s="4"/>
       <c r="L666" s="5"/>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:12">
       <c r="A667" s="5"/>
       <c r="B667" s="5"/>
       <c r="C667" s="5"/>
@@ -10161,7 +10273,7 @@
       <c r="K667" s="4"/>
       <c r="L667" s="5"/>
     </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:12">
       <c r="A668" s="5"/>
       <c r="B668" s="5"/>
       <c r="C668" s="5"/>
@@ -10175,7 +10287,7 @@
       <c r="K668" s="4"/>
       <c r="L668" s="5"/>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:12">
       <c r="A669" s="5"/>
       <c r="B669" s="5"/>
       <c r="C669" s="5"/>
@@ -10189,7 +10301,7 @@
       <c r="K669" s="4"/>
       <c r="L669" s="5"/>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:12">
       <c r="A670" s="5"/>
       <c r="B670" s="5"/>
       <c r="C670" s="5"/>
@@ -10203,7 +10315,7 @@
       <c r="K670" s="4"/>
       <c r="L670" s="5"/>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:12">
       <c r="A671" s="5"/>
       <c r="B671" s="5"/>
       <c r="C671" s="5"/>
@@ -10217,7 +10329,7 @@
       <c r="K671" s="4"/>
       <c r="L671" s="5"/>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:12">
       <c r="A672" s="5"/>
       <c r="B672" s="5"/>
       <c r="C672" s="5"/>
@@ -10231,7 +10343,7 @@
       <c r="K672" s="4"/>
       <c r="L672" s="5"/>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:12">
       <c r="A673" s="5"/>
       <c r="B673" s="5"/>
       <c r="C673" s="5"/>
@@ -10245,7 +10357,7 @@
       <c r="K673" s="4"/>
       <c r="L673" s="5"/>
     </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:12">
       <c r="A674" s="5"/>
       <c r="B674" s="5"/>
       <c r="C674" s="5"/>
@@ -10259,7 +10371,7 @@
       <c r="K674" s="4"/>
       <c r="L674" s="5"/>
     </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:12">
       <c r="A675" s="5"/>
       <c r="B675" s="5"/>
       <c r="C675" s="5"/>
@@ -10273,7 +10385,7 @@
       <c r="K675" s="4"/>
       <c r="L675" s="5"/>
     </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:12">
       <c r="A676" s="5"/>
       <c r="B676" s="5"/>
       <c r="C676" s="5"/>
@@ -10287,7 +10399,7 @@
       <c r="K676" s="4"/>
       <c r="L676" s="5"/>
     </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:12">
       <c r="A677" s="5"/>
       <c r="B677" s="5"/>
       <c r="C677" s="5"/>
@@ -10301,7 +10413,7 @@
       <c r="K677" s="4"/>
       <c r="L677" s="5"/>
     </row>
-    <row r="678" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:12">
       <c r="A678" s="5"/>
       <c r="B678" s="5"/>
       <c r="C678" s="5"/>
@@ -10315,7 +10427,7 @@
       <c r="K678" s="4"/>
       <c r="L678" s="5"/>
     </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:12">
       <c r="A679" s="5"/>
       <c r="B679" s="5"/>
       <c r="C679" s="5"/>
@@ -10329,7 +10441,7 @@
       <c r="K679" s="4"/>
       <c r="L679" s="5"/>
     </row>
-    <row r="680" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:12">
       <c r="A680" s="5"/>
       <c r="B680" s="5"/>
       <c r="C680" s="5"/>
@@ -10343,7 +10455,7 @@
       <c r="K680" s="4"/>
       <c r="L680" s="5"/>
     </row>
-    <row r="681" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:12">
       <c r="A681" s="5"/>
       <c r="B681" s="5"/>
       <c r="C681" s="5"/>
@@ -10357,7 +10469,7 @@
       <c r="K681" s="4"/>
       <c r="L681" s="5"/>
     </row>
-    <row r="682" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:12">
       <c r="A682" s="5"/>
       <c r="B682" s="5"/>
       <c r="C682" s="5"/>
@@ -10371,7 +10483,7 @@
       <c r="K682" s="4"/>
       <c r="L682" s="5"/>
     </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:12">
       <c r="A683" s="5"/>
       <c r="B683" s="5"/>
       <c r="C683" s="5"/>
@@ -10385,7 +10497,7 @@
       <c r="K683" s="4"/>
       <c r="L683" s="5"/>
     </row>
-    <row r="684" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:12">
       <c r="A684" s="5"/>
       <c r="B684" s="5"/>
       <c r="C684" s="5"/>
@@ -10399,7 +10511,7 @@
       <c r="K684" s="4"/>
       <c r="L684" s="5"/>
     </row>
-    <row r="685" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:12">
       <c r="A685" s="5"/>
       <c r="B685" s="5"/>
       <c r="C685" s="5"/>
@@ -10413,7 +10525,7 @@
       <c r="K685" s="4"/>
       <c r="L685" s="5"/>
     </row>
-    <row r="686" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:12">
       <c r="A686" s="5"/>
       <c r="B686" s="5"/>
       <c r="C686" s="5"/>
@@ -10427,7 +10539,7 @@
       <c r="K686" s="4"/>
       <c r="L686" s="5"/>
     </row>
-    <row r="687" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:12">
       <c r="A687" s="5"/>
       <c r="B687" s="5"/>
       <c r="C687" s="5"/>
@@ -10441,7 +10553,7 @@
       <c r="K687" s="4"/>
       <c r="L687" s="5"/>
     </row>
-    <row r="688" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:12">
       <c r="A688" s="5"/>
       <c r="B688" s="5"/>
       <c r="C688" s="5"/>
@@ -10455,7 +10567,7 @@
       <c r="K688" s="4"/>
       <c r="L688" s="5"/>
     </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:12">
       <c r="A689" s="5"/>
       <c r="B689" s="5"/>
       <c r="C689" s="5"/>
@@ -10469,7 +10581,7 @@
       <c r="K689" s="4"/>
       <c r="L689" s="5"/>
     </row>
-    <row r="690" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:12">
       <c r="A690" s="5"/>
       <c r="B690" s="5"/>
       <c r="C690" s="5"/>
@@ -10483,7 +10595,7 @@
       <c r="K690" s="4"/>
       <c r="L690" s="5"/>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:12">
       <c r="A691" s="5"/>
       <c r="B691" s="5"/>
       <c r="C691" s="5"/>
@@ -10497,7 +10609,7 @@
       <c r="K691" s="4"/>
       <c r="L691" s="5"/>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:12">
       <c r="A692" s="5"/>
       <c r="B692" s="5"/>
       <c r="C692" s="5"/>
@@ -10511,7 +10623,7 @@
       <c r="K692" s="4"/>
       <c r="L692" s="5"/>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:12">
       <c r="A693" s="5"/>
       <c r="B693" s="5"/>
       <c r="C693" s="5"/>
@@ -10525,7 +10637,7 @@
       <c r="K693" s="4"/>
       <c r="L693" s="5"/>
     </row>
-    <row r="694" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:12">
       <c r="A694" s="5"/>
       <c r="B694" s="5"/>
       <c r="C694" s="5"/>
@@ -10539,7 +10651,7 @@
       <c r="K694" s="4"/>
       <c r="L694" s="5"/>
     </row>
-    <row r="695" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:12">
       <c r="A695" s="5"/>
       <c r="B695" s="5"/>
       <c r="C695" s="5"/>
@@ -10553,7 +10665,7 @@
       <c r="K695" s="4"/>
       <c r="L695" s="5"/>
     </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:12">
       <c r="A696" s="5"/>
       <c r="B696" s="5"/>
       <c r="C696" s="5"/>
@@ -10567,7 +10679,7 @@
       <c r="K696" s="4"/>
       <c r="L696" s="5"/>
     </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:12">
       <c r="A697" s="5"/>
       <c r="B697" s="5"/>
       <c r="C697" s="5"/>
@@ -10581,7 +10693,7 @@
       <c r="K697" s="4"/>
       <c r="L697" s="5"/>
     </row>
-    <row r="698" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:12">
       <c r="A698" s="5"/>
       <c r="B698" s="5"/>
       <c r="C698" s="5"/>
@@ -10595,7 +10707,7 @@
       <c r="K698" s="4"/>
       <c r="L698" s="5"/>
     </row>
-    <row r="699" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:12">
       <c r="A699" s="5"/>
       <c r="B699" s="5"/>
       <c r="C699" s="5"/>
@@ -10609,7 +10721,7 @@
       <c r="K699" s="4"/>
       <c r="L699" s="5"/>
     </row>
-    <row r="700" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:12">
       <c r="A700" s="5"/>
       <c r="B700" s="5"/>
       <c r="C700" s="5"/>
@@ -10623,7 +10735,7 @@
       <c r="K700" s="4"/>
       <c r="L700" s="5"/>
     </row>
-    <row r="701" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:12">
       <c r="A701" s="5"/>
       <c r="B701" s="5"/>
       <c r="C701" s="5"/>
@@ -10637,7 +10749,7 @@
       <c r="K701" s="4"/>
       <c r="L701" s="5"/>
     </row>
-    <row r="702" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:12">
       <c r="A702" s="5"/>
       <c r="B702" s="5"/>
       <c r="C702" s="5"/>
@@ -10651,7 +10763,7 @@
       <c r="K702" s="4"/>
       <c r="L702" s="5"/>
     </row>
-    <row r="703" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:12">
       <c r="A703" s="5"/>
       <c r="B703" s="5"/>
       <c r="C703" s="5"/>
@@ -10665,7 +10777,7 @@
       <c r="K703" s="4"/>
       <c r="L703" s="5"/>
     </row>
-    <row r="704" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:12">
       <c r="A704" s="5"/>
       <c r="B704" s="5"/>
       <c r="C704" s="5"/>
@@ -10679,7 +10791,7 @@
       <c r="K704" s="4"/>
       <c r="L704" s="5"/>
     </row>
-    <row r="705" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:12">
       <c r="A705" s="5"/>
       <c r="B705" s="5"/>
       <c r="C705" s="5"/>
@@ -10693,7 +10805,7 @@
       <c r="K705" s="4"/>
       <c r="L705" s="5"/>
     </row>
-    <row r="706" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:12">
       <c r="A706" s="5"/>
       <c r="B706" s="5"/>
       <c r="C706" s="5"/>
@@ -10707,7 +10819,7 @@
       <c r="K706" s="4"/>
       <c r="L706" s="5"/>
     </row>
-    <row r="707" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:12">
       <c r="A707" s="5"/>
       <c r="B707" s="5"/>
       <c r="C707" s="5"/>
@@ -10721,7 +10833,7 @@
       <c r="K707" s="4"/>
       <c r="L707" s="5"/>
     </row>
-    <row r="708" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:12">
       <c r="A708" s="5"/>
       <c r="B708" s="5"/>
       <c r="C708" s="5"/>
@@ -10735,7 +10847,7 @@
       <c r="K708" s="4"/>
       <c r="L708" s="5"/>
     </row>
-    <row r="709" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:12">
       <c r="A709" s="5"/>
       <c r="B709" s="5"/>
       <c r="C709" s="5"/>
@@ -10749,7 +10861,7 @@
       <c r="K709" s="4"/>
       <c r="L709" s="5"/>
     </row>
-    <row r="710" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:12">
       <c r="A710" s="5"/>
       <c r="B710" s="5"/>
       <c r="C710" s="5"/>
@@ -10763,7 +10875,7 @@
       <c r="K710" s="4"/>
       <c r="L710" s="5"/>
     </row>
-    <row r="711" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:12">
       <c r="A711" s="5"/>
       <c r="B711" s="5"/>
       <c r="C711" s="5"/>
@@ -10777,7 +10889,7 @@
       <c r="K711" s="4"/>
       <c r="L711" s="5"/>
     </row>
-    <row r="712" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:12">
       <c r="A712" s="5"/>
       <c r="B712" s="5"/>
       <c r="C712" s="5"/>
@@ -10791,7 +10903,7 @@
       <c r="K712" s="4"/>
       <c r="L712" s="5"/>
     </row>
-    <row r="713" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:12">
       <c r="A713" s="5"/>
       <c r="B713" s="5"/>
       <c r="C713" s="5"/>
@@ -10805,7 +10917,7 @@
       <c r="K713" s="4"/>
       <c r="L713" s="5"/>
     </row>
-    <row r="714" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:12">
       <c r="A714" s="5"/>
       <c r="B714" s="5"/>
       <c r="C714" s="5"/>
@@ -10819,7 +10931,7 @@
       <c r="K714" s="4"/>
       <c r="L714" s="5"/>
     </row>
-    <row r="715" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:12">
       <c r="A715" s="5"/>
       <c r="B715" s="5"/>
       <c r="C715" s="5"/>
@@ -10833,7 +10945,7 @@
       <c r="K715" s="4"/>
       <c r="L715" s="5"/>
     </row>
-    <row r="716" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:12">
       <c r="A716" s="5"/>
       <c r="B716" s="5"/>
       <c r="C716" s="5"/>
@@ -10847,7 +10959,7 @@
       <c r="K716" s="4"/>
       <c r="L716" s="5"/>
     </row>
-    <row r="717" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:12">
       <c r="A717" s="5"/>
       <c r="B717" s="5"/>
       <c r="C717" s="5"/>
@@ -10861,7 +10973,7 @@
       <c r="K717" s="4"/>
       <c r="L717" s="5"/>
     </row>
-    <row r="718" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:12">
       <c r="A718" s="5"/>
       <c r="B718" s="5"/>
       <c r="C718" s="5"/>
@@ -10875,7 +10987,7 @@
       <c r="K718" s="4"/>
       <c r="L718" s="5"/>
     </row>
-    <row r="719" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:12">
       <c r="A719" s="5"/>
       <c r="B719" s="5"/>
       <c r="C719" s="5"/>
@@ -10889,7 +11001,7 @@
       <c r="K719" s="4"/>
       <c r="L719" s="5"/>
     </row>
-    <row r="720" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:12">
       <c r="A720" s="5"/>
       <c r="B720" s="5"/>
       <c r="C720" s="5"/>
@@ -10903,7 +11015,7 @@
       <c r="K720" s="4"/>
       <c r="L720" s="5"/>
     </row>
-    <row r="721" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:12">
       <c r="A721" s="5"/>
       <c r="B721" s="5"/>
       <c r="C721" s="5"/>
@@ -10917,7 +11029,7 @@
       <c r="K721" s="4"/>
       <c r="L721" s="5"/>
     </row>
-    <row r="722" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:12">
       <c r="A722" s="5"/>
       <c r="B722" s="5"/>
       <c r="C722" s="5"/>
@@ -10931,7 +11043,7 @@
       <c r="K722" s="4"/>
       <c r="L722" s="5"/>
     </row>
-    <row r="723" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:12">
       <c r="A723" s="5"/>
       <c r="B723" s="5"/>
       <c r="C723" s="5"/>
@@ -10945,7 +11057,7 @@
       <c r="K723" s="4"/>
       <c r="L723" s="5"/>
     </row>
-    <row r="724" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:12">
       <c r="A724" s="5"/>
       <c r="B724" s="5"/>
       <c r="C724" s="5"/>
@@ -10959,7 +11071,7 @@
       <c r="K724" s="4"/>
       <c r="L724" s="5"/>
     </row>
-    <row r="725" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:12">
       <c r="A725" s="5"/>
       <c r="B725" s="5"/>
       <c r="C725" s="5"/>
@@ -10973,7 +11085,7 @@
       <c r="K725" s="4"/>
       <c r="L725" s="5"/>
     </row>
-    <row r="726" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:12">
       <c r="A726" s="5"/>
       <c r="B726" s="5"/>
       <c r="C726" s="5"/>
@@ -10987,7 +11099,7 @@
       <c r="K726" s="4"/>
       <c r="L726" s="5"/>
     </row>
-    <row r="727" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:12">
       <c r="A727" s="5"/>
       <c r="B727" s="5"/>
       <c r="C727" s="5"/>
@@ -11001,7 +11113,7 @@
       <c r="K727" s="4"/>
       <c r="L727" s="5"/>
     </row>
-    <row r="728" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:12">
       <c r="A728" s="5"/>
       <c r="B728" s="5"/>
       <c r="C728" s="5"/>
@@ -11015,7 +11127,7 @@
       <c r="K728" s="4"/>
       <c r="L728" s="5"/>
     </row>
-    <row r="729" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:12">
       <c r="A729" s="5"/>
       <c r="B729" s="5"/>
       <c r="C729" s="5"/>
@@ -11029,7 +11141,7 @@
       <c r="K729" s="4"/>
       <c r="L729" s="5"/>
     </row>
-    <row r="730" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:12">
       <c r="A730" s="5"/>
       <c r="B730" s="5"/>
       <c r="C730" s="5"/>
@@ -11043,7 +11155,7 @@
       <c r="K730" s="4"/>
       <c r="L730" s="5"/>
     </row>
-    <row r="731" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:12">
       <c r="A731" s="5"/>
       <c r="B731" s="5"/>
       <c r="C731" s="5"/>
@@ -11057,7 +11169,7 @@
       <c r="K731" s="4"/>
       <c r="L731" s="5"/>
     </row>
-    <row r="732" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:12">
       <c r="A732" s="5"/>
       <c r="B732" s="5"/>
       <c r="C732" s="5"/>
@@ -11071,7 +11183,7 @@
       <c r="K732" s="4"/>
       <c r="L732" s="5"/>
     </row>
-    <row r="733" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:12">
       <c r="A733" s="5"/>
       <c r="B733" s="5"/>
       <c r="C733" s="5"/>
@@ -11085,7 +11197,7 @@
       <c r="K733" s="4"/>
       <c r="L733" s="5"/>
     </row>
-    <row r="734" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:12">
       <c r="A734" s="5"/>
       <c r="B734" s="5"/>
       <c r="C734" s="5"/>
@@ -11099,7 +11211,7 @@
       <c r="K734" s="4"/>
       <c r="L734" s="5"/>
     </row>
-    <row r="735" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:12">
       <c r="A735" s="5"/>
       <c r="B735" s="5"/>
       <c r="C735" s="5"/>
@@ -11113,7 +11225,7 @@
       <c r="K735" s="4"/>
       <c r="L735" s="5"/>
     </row>
-    <row r="736" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:12">
       <c r="A736" s="5"/>
       <c r="B736" s="5"/>
       <c r="C736" s="5"/>
@@ -11127,7 +11239,7 @@
       <c r="K736" s="4"/>
       <c r="L736" s="5"/>
     </row>
-    <row r="737" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:12">
       <c r="A737" s="5"/>
       <c r="B737" s="5"/>
       <c r="C737" s="5"/>
@@ -11141,7 +11253,7 @@
       <c r="K737" s="4"/>
       <c r="L737" s="5"/>
     </row>
-    <row r="738" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:12">
       <c r="A738" s="5"/>
       <c r="B738" s="5"/>
       <c r="C738" s="5"/>
@@ -11155,7 +11267,7 @@
       <c r="K738" s="4"/>
       <c r="L738" s="5"/>
     </row>
-    <row r="739" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:12">
       <c r="A739" s="5"/>
       <c r="B739" s="5"/>
       <c r="C739" s="5"/>
@@ -11169,7 +11281,7 @@
       <c r="K739" s="4"/>
       <c r="L739" s="5"/>
     </row>
-    <row r="740" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:12">
       <c r="A740" s="5"/>
       <c r="B740" s="5"/>
       <c r="C740" s="5"/>
@@ -11183,7 +11295,7 @@
       <c r="K740" s="4"/>
       <c r="L740" s="5"/>
     </row>
-    <row r="741" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:12">
       <c r="A741" s="5"/>
       <c r="B741" s="5"/>
       <c r="C741" s="5"/>
@@ -11197,7 +11309,7 @@
       <c r="K741" s="4"/>
       <c r="L741" s="5"/>
     </row>
-    <row r="742" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:12">
       <c r="A742" s="5"/>
       <c r="B742" s="5"/>
       <c r="C742" s="5"/>
@@ -11211,7 +11323,7 @@
       <c r="K742" s="4"/>
       <c r="L742" s="5"/>
     </row>
-    <row r="743" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:12">
       <c r="A743" s="5"/>
       <c r="B743" s="5"/>
       <c r="C743" s="5"/>
@@ -11225,7 +11337,7 @@
       <c r="K743" s="4"/>
       <c r="L743" s="5"/>
     </row>
-    <row r="744" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:12">
       <c r="A744" s="5"/>
       <c r="B744" s="5"/>
       <c r="C744" s="5"/>
@@ -11239,7 +11351,7 @@
       <c r="K744" s="4"/>
       <c r="L744" s="5"/>
     </row>
-    <row r="745" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:12">
       <c r="A745" s="5"/>
       <c r="B745" s="5"/>
       <c r="C745" s="5"/>
@@ -11253,7 +11365,7 @@
       <c r="K745" s="4"/>
       <c r="L745" s="5"/>
     </row>
-    <row r="746" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:12">
       <c r="A746" s="5"/>
       <c r="B746" s="5"/>
       <c r="C746" s="5"/>
@@ -11267,7 +11379,7 @@
       <c r="K746" s="4"/>
       <c r="L746" s="5"/>
     </row>
-    <row r="747" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:12">
       <c r="A747" s="5"/>
       <c r="B747" s="5"/>
       <c r="C747" s="5"/>
@@ -11281,7 +11393,7 @@
       <c r="K747" s="4"/>
       <c r="L747" s="5"/>
     </row>
-    <row r="748" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:12">
       <c r="A748" s="5"/>
       <c r="B748" s="5"/>
       <c r="C748" s="5"/>
@@ -11295,7 +11407,7 @@
       <c r="K748" s="4"/>
       <c r="L748" s="5"/>
     </row>
-    <row r="749" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:12">
       <c r="A749" s="5"/>
       <c r="B749" s="5"/>
       <c r="C749" s="5"/>
@@ -11309,7 +11421,7 @@
       <c r="K749" s="4"/>
       <c r="L749" s="5"/>
     </row>
-    <row r="750" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:12">
       <c r="A750" s="5"/>
       <c r="B750" s="5"/>
       <c r="C750" s="5"/>
@@ -11323,7 +11435,7 @@
       <c r="K750" s="4"/>
       <c r="L750" s="5"/>
     </row>
-    <row r="751" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:12">
       <c r="A751" s="5"/>
       <c r="B751" s="5"/>
       <c r="C751" s="5"/>
@@ -11337,7 +11449,7 @@
       <c r="K751" s="4"/>
       <c r="L751" s="5"/>
     </row>
-    <row r="752" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:12">
       <c r="A752" s="5"/>
       <c r="B752" s="5"/>
       <c r="C752" s="5"/>
@@ -11351,7 +11463,7 @@
       <c r="K752" s="4"/>
       <c r="L752" s="5"/>
     </row>
-    <row r="753" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:12">
       <c r="A753" s="5"/>
       <c r="B753" s="5"/>
       <c r="C753" s="5"/>
@@ -11365,7 +11477,7 @@
       <c r="K753" s="4"/>
       <c r="L753" s="5"/>
     </row>
-    <row r="754" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:12">
       <c r="A754" s="5"/>
       <c r="B754" s="5"/>
       <c r="C754" s="5"/>
@@ -11379,7 +11491,7 @@
       <c r="K754" s="4"/>
       <c r="L754" s="5"/>
     </row>
-    <row r="755" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:12">
       <c r="A755" s="5"/>
       <c r="B755" s="5"/>
       <c r="C755" s="5"/>
@@ -11393,7 +11505,7 @@
       <c r="K755" s="4"/>
       <c r="L755" s="5"/>
     </row>
-    <row r="756" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:12">
       <c r="A756" s="5"/>
       <c r="B756" s="5"/>
       <c r="C756" s="5"/>
@@ -11407,7 +11519,7 @@
       <c r="K756" s="4"/>
       <c r="L756" s="5"/>
     </row>
-    <row r="757" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:12">
       <c r="A757" s="5"/>
       <c r="B757" s="5"/>
       <c r="C757" s="5"/>
@@ -11421,7 +11533,7 @@
       <c r="K757" s="4"/>
       <c r="L757" s="5"/>
     </row>
-    <row r="758" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:12">
       <c r="A758" s="5"/>
       <c r="B758" s="5"/>
       <c r="C758" s="5"/>
@@ -11435,7 +11547,7 @@
       <c r="K758" s="4"/>
       <c r="L758" s="5"/>
     </row>
-    <row r="759" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:12">
       <c r="A759" s="5"/>
       <c r="B759" s="5"/>
       <c r="C759" s="5"/>
@@ -11449,7 +11561,7 @@
       <c r="K759" s="4"/>
       <c r="L759" s="5"/>
     </row>
-    <row r="760" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:12">
       <c r="A760" s="5"/>
       <c r="B760" s="5"/>
       <c r="C760" s="5"/>
@@ -11463,7 +11575,7 @@
       <c r="K760" s="4"/>
       <c r="L760" s="5"/>
     </row>
-    <row r="761" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:12">
       <c r="A761" s="5"/>
       <c r="B761" s="5"/>
       <c r="C761" s="5"/>
@@ -11477,7 +11589,7 @@
       <c r="K761" s="4"/>
       <c r="L761" s="5"/>
     </row>
-    <row r="762" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:12">
       <c r="A762" s="5"/>
       <c r="B762" s="5"/>
       <c r="C762" s="5"/>
@@ -11491,7 +11603,7 @@
       <c r="K762" s="4"/>
       <c r="L762" s="5"/>
     </row>
-    <row r="763" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:12">
       <c r="A763" s="5"/>
       <c r="B763" s="5"/>
       <c r="C763" s="5"/>
@@ -11505,7 +11617,7 @@
       <c r="K763" s="4"/>
       <c r="L763" s="5"/>
     </row>
-    <row r="764" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:12">
       <c r="A764" s="5"/>
       <c r="B764" s="5"/>
       <c r="C764" s="5"/>
@@ -11519,7 +11631,7 @@
       <c r="K764" s="4"/>
       <c r="L764" s="5"/>
     </row>
-    <row r="765" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:12">
       <c r="A765" s="5"/>
       <c r="B765" s="5"/>
       <c r="C765" s="5"/>
@@ -11533,7 +11645,7 @@
       <c r="K765" s="4"/>
       <c r="L765" s="5"/>
     </row>
-    <row r="766" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:12">
       <c r="A766" s="5"/>
       <c r="B766" s="5"/>
       <c r="C766" s="5"/>
@@ -11547,7 +11659,7 @@
       <c r="K766" s="4"/>
       <c r="L766" s="5"/>
     </row>
-    <row r="767" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:12">
       <c r="A767" s="5"/>
       <c r="B767" s="5"/>
       <c r="C767" s="5"/>
@@ -11561,7 +11673,7 @@
       <c r="K767" s="4"/>
       <c r="L767" s="5"/>
     </row>
-    <row r="768" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:12">
       <c r="A768" s="5"/>
       <c r="B768" s="5"/>
       <c r="C768" s="5"/>
@@ -11575,7 +11687,7 @@
       <c r="K768" s="4"/>
       <c r="L768" s="5"/>
     </row>
-    <row r="769" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:12">
       <c r="A769" s="5"/>
       <c r="B769" s="5"/>
       <c r="C769" s="5"/>
@@ -11589,7 +11701,7 @@
       <c r="K769" s="4"/>
       <c r="L769" s="5"/>
     </row>
-    <row r="770" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:12">
       <c r="A770" s="5"/>
       <c r="B770" s="5"/>
       <c r="C770" s="5"/>
@@ -11603,7 +11715,7 @@
       <c r="K770" s="4"/>
       <c r="L770" s="5"/>
     </row>
-    <row r="771" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:12">
       <c r="A771" s="5"/>
       <c r="B771" s="5"/>
       <c r="C771" s="5"/>
@@ -11617,7 +11729,7 @@
       <c r="K771" s="4"/>
       <c r="L771" s="5"/>
     </row>
-    <row r="772" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:12">
       <c r="A772" s="5"/>
       <c r="B772" s="5"/>
       <c r="C772" s="5"/>
@@ -11631,7 +11743,7 @@
       <c r="K772" s="4"/>
       <c r="L772" s="5"/>
     </row>
-    <row r="773" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:12">
       <c r="A773" s="5"/>
       <c r="B773" s="5"/>
       <c r="C773" s="5"/>
@@ -11645,7 +11757,7 @@
       <c r="K773" s="4"/>
       <c r="L773" s="5"/>
     </row>
-    <row r="774" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:12">
       <c r="A774" s="5"/>
       <c r="B774" s="5"/>
       <c r="C774" s="5"/>
@@ -11659,7 +11771,7 @@
       <c r="K774" s="4"/>
       <c r="L774" s="5"/>
     </row>
-    <row r="775" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:12">
       <c r="A775" s="5"/>
       <c r="B775" s="5"/>
       <c r="C775" s="5"/>
@@ -11673,7 +11785,7 @@
       <c r="K775" s="4"/>
       <c r="L775" s="5"/>
     </row>
-    <row r="776" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:12">
       <c r="A776" s="5"/>
       <c r="B776" s="5"/>
       <c r="C776" s="5"/>
@@ -11687,7 +11799,7 @@
       <c r="K776" s="4"/>
       <c r="L776" s="5"/>
     </row>
-    <row r="777" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:12">
       <c r="A777" s="5"/>
       <c r="B777" s="5"/>
       <c r="C777" s="5"/>
@@ -11701,7 +11813,7 @@
       <c r="K777" s="4"/>
       <c r="L777" s="5"/>
     </row>
-    <row r="778" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:12">
       <c r="A778" s="5"/>
       <c r="B778" s="5"/>
       <c r="C778" s="5"/>
@@ -11715,7 +11827,7 @@
       <c r="K778" s="4"/>
       <c r="L778" s="5"/>
     </row>
-    <row r="779" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:12">
       <c r="A779" s="5"/>
       <c r="B779" s="5"/>
       <c r="C779" s="5"/>
@@ -11729,7 +11841,7 @@
       <c r="K779" s="4"/>
       <c r="L779" s="5"/>
     </row>
-    <row r="780" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:12">
       <c r="A780" s="5"/>
       <c r="B780" s="5"/>
       <c r="C780" s="5"/>
@@ -11743,7 +11855,7 @@
       <c r="K780" s="4"/>
       <c r="L780" s="5"/>
     </row>
-    <row r="781" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:12">
       <c r="A781" s="5"/>
       <c r="B781" s="5"/>
       <c r="C781" s="5"/>
@@ -11757,7 +11869,7 @@
       <c r="K781" s="4"/>
       <c r="L781" s="5"/>
     </row>
-    <row r="782" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:12">
       <c r="A782" s="5"/>
       <c r="B782" s="5"/>
       <c r="C782" s="5"/>
@@ -11771,7 +11883,7 @@
       <c r="K782" s="4"/>
       <c r="L782" s="5"/>
     </row>
-    <row r="783" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:12">
       <c r="A783" s="5"/>
       <c r="B783" s="5"/>
       <c r="C783" s="5"/>
@@ -11785,7 +11897,7 @@
       <c r="K783" s="4"/>
       <c r="L783" s="5"/>
     </row>
-    <row r="784" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:12">
       <c r="A784" s="5"/>
       <c r="B784" s="5"/>
       <c r="C784" s="5"/>
@@ -11799,7 +11911,7 @@
       <c r="K784" s="4"/>
       <c r="L784" s="5"/>
     </row>
-    <row r="785" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:12">
       <c r="A785" s="5"/>
       <c r="B785" s="5"/>
       <c r="C785" s="5"/>
@@ -11813,7 +11925,7 @@
       <c r="K785" s="4"/>
       <c r="L785" s="5"/>
     </row>
-    <row r="786" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:12">
       <c r="A786" s="5"/>
       <c r="B786" s="5"/>
       <c r="C786" s="5"/>
@@ -11827,7 +11939,7 @@
       <c r="K786" s="4"/>
       <c r="L786" s="5"/>
     </row>
-    <row r="787" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:12">
       <c r="A787" s="5"/>
       <c r="B787" s="5"/>
       <c r="C787" s="5"/>
@@ -11841,7 +11953,7 @@
       <c r="K787" s="4"/>
       <c r="L787" s="5"/>
     </row>
-    <row r="788" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:12">
       <c r="A788" s="5"/>
       <c r="B788" s="5"/>
       <c r="C788" s="5"/>
@@ -11855,7 +11967,7 @@
       <c r="K788" s="4"/>
       <c r="L788" s="5"/>
     </row>
-    <row r="789" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:12">
       <c r="A789" s="5"/>
       <c r="B789" s="5"/>
       <c r="C789" s="5"/>
@@ -11869,7 +11981,7 @@
       <c r="K789" s="4"/>
       <c r="L789" s="5"/>
     </row>
-    <row r="790" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:12">
       <c r="A790" s="5"/>
       <c r="B790" s="5"/>
       <c r="C790" s="5"/>
@@ -11883,7 +11995,7 @@
       <c r="K790" s="4"/>
       <c r="L790" s="5"/>
     </row>
-    <row r="791" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:12">
       <c r="A791" s="5"/>
       <c r="B791" s="5"/>
       <c r="C791" s="5"/>
@@ -11897,7 +12009,7 @@
       <c r="K791" s="4"/>
       <c r="L791" s="5"/>
     </row>
-    <row r="792" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:12">
       <c r="A792" s="5"/>
       <c r="B792" s="5"/>
       <c r="C792" s="5"/>
@@ -11911,7 +12023,7 @@
       <c r="K792" s="4"/>
       <c r="L792" s="5"/>
     </row>
-    <row r="793" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:12">
       <c r="A793" s="5"/>
       <c r="B793" s="5"/>
       <c r="C793" s="5"/>
@@ -11925,7 +12037,7 @@
       <c r="K793" s="4"/>
       <c r="L793" s="5"/>
     </row>
-    <row r="794" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:12">
       <c r="A794" s="5"/>
       <c r="B794" s="5"/>
       <c r="C794" s="5"/>
@@ -11939,7 +12051,7 @@
       <c r="K794" s="4"/>
       <c r="L794" s="5"/>
     </row>
-    <row r="795" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:12">
       <c r="A795" s="5"/>
       <c r="B795" s="5"/>
       <c r="C795" s="5"/>
@@ -11953,7 +12065,7 @@
       <c r="K795" s="4"/>
       <c r="L795" s="5"/>
     </row>
-    <row r="796" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:12">
       <c r="A796" s="5"/>
       <c r="B796" s="5"/>
       <c r="C796" s="5"/>
@@ -11967,7 +12079,7 @@
       <c r="K796" s="4"/>
       <c r="L796" s="5"/>
     </row>
-    <row r="797" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:12">
       <c r="A797" s="5"/>
       <c r="B797" s="5"/>
       <c r="C797" s="5"/>
@@ -11981,7 +12093,7 @@
       <c r="K797" s="4"/>
       <c r="L797" s="5"/>
     </row>
-    <row r="798" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:12">
       <c r="A798" s="5"/>
       <c r="B798" s="5"/>
       <c r="C798" s="5"/>
@@ -11995,7 +12107,7 @@
       <c r="K798" s="4"/>
       <c r="L798" s="5"/>
     </row>
-    <row r="799" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:12">
       <c r="A799" s="5"/>
       <c r="B799" s="5"/>
       <c r="C799" s="5"/>
@@ -12009,7 +12121,7 @@
       <c r="K799" s="4"/>
       <c r="L799" s="5"/>
     </row>
-    <row r="800" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:12">
       <c r="A800" s="5"/>
       <c r="B800" s="5"/>
       <c r="C800" s="5"/>
@@ -12023,7 +12135,7 @@
       <c r="K800" s="4"/>
       <c r="L800" s="5"/>
     </row>
-    <row r="801" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:12">
       <c r="A801" s="5"/>
       <c r="B801" s="5"/>
       <c r="C801" s="5"/>
@@ -12037,7 +12149,7 @@
       <c r="K801" s="4"/>
       <c r="L801" s="5"/>
     </row>
-    <row r="802" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:12">
       <c r="A802" s="5"/>
       <c r="B802" s="5"/>
       <c r="C802" s="5"/>
@@ -12051,7 +12163,7 @@
       <c r="K802" s="4"/>
       <c r="L802" s="5"/>
     </row>
-    <row r="803" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:12">
       <c r="A803" s="5"/>
       <c r="B803" s="5"/>
       <c r="C803" s="5"/>
@@ -12065,7 +12177,7 @@
       <c r="K803" s="4"/>
       <c r="L803" s="5"/>
     </row>
-    <row r="804" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:12">
       <c r="A804" s="5"/>
       <c r="B804" s="5"/>
       <c r="C804" s="5"/>
@@ -12079,7 +12191,7 @@
       <c r="K804" s="4"/>
       <c r="L804" s="5"/>
     </row>
-    <row r="805" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:12">
       <c r="A805" s="5"/>
       <c r="B805" s="5"/>
       <c r="C805" s="5"/>
@@ -12093,7 +12205,7 @@
       <c r="K805" s="4"/>
       <c r="L805" s="5"/>
     </row>
-    <row r="806" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:12">
       <c r="A806" s="5"/>
       <c r="B806" s="5"/>
       <c r="C806" s="5"/>
@@ -12107,7 +12219,7 @@
       <c r="K806" s="4"/>
       <c r="L806" s="5"/>
     </row>
-    <row r="807" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:12">
       <c r="A807" s="5"/>
       <c r="B807" s="5"/>
       <c r="C807" s="5"/>
@@ -12121,7 +12233,7 @@
       <c r="K807" s="4"/>
       <c r="L807" s="5"/>
     </row>
-    <row r="808" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:12">
       <c r="A808" s="5"/>
       <c r="B808" s="5"/>
       <c r="C808" s="5"/>
@@ -12135,7 +12247,7 @@
       <c r="K808" s="4"/>
       <c r="L808" s="5"/>
     </row>
-    <row r="809" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:12">
       <c r="A809" s="5"/>
       <c r="B809" s="5"/>
       <c r="C809" s="5"/>
@@ -12149,7 +12261,7 @@
       <c r="K809" s="4"/>
       <c r="L809" s="5"/>
     </row>
-    <row r="810" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:12">
       <c r="A810" s="5"/>
       <c r="B810" s="5"/>
       <c r="C810" s="5"/>
@@ -12163,7 +12275,7 @@
       <c r="K810" s="4"/>
       <c r="L810" s="5"/>
     </row>
-    <row r="811" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:12">
       <c r="A811" s="5"/>
       <c r="B811" s="5"/>
       <c r="C811" s="5"/>
@@ -12177,7 +12289,7 @@
       <c r="K811" s="4"/>
       <c r="L811" s="5"/>
     </row>
-    <row r="812" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:12">
       <c r="A812" s="5"/>
       <c r="B812" s="5"/>
       <c r="C812" s="5"/>
@@ -12191,7 +12303,7 @@
       <c r="K812" s="4"/>
       <c r="L812" s="5"/>
     </row>
-    <row r="813" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:12">
       <c r="A813" s="5"/>
       <c r="B813" s="5"/>
       <c r="C813" s="5"/>
@@ -12205,7 +12317,7 @@
       <c r="K813" s="4"/>
       <c r="L813" s="5"/>
     </row>
-    <row r="814" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:12">
       <c r="A814" s="5"/>
       <c r="B814" s="5"/>
       <c r="C814" s="5"/>
@@ -12219,7 +12331,7 @@
       <c r="K814" s="4"/>
       <c r="L814" s="5"/>
     </row>
-    <row r="815" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:12">
       <c r="A815" s="5"/>
       <c r="B815" s="5"/>
       <c r="C815" s="5"/>
@@ -12233,7 +12345,7 @@
       <c r="K815" s="4"/>
       <c r="L815" s="5"/>
     </row>
-    <row r="816" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:12">
       <c r="A816" s="5"/>
       <c r="B816" s="5"/>
       <c r="C816" s="5"/>
@@ -12247,7 +12359,7 @@
       <c r="K816" s="4"/>
       <c r="L816" s="5"/>
     </row>
-    <row r="817" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:12">
       <c r="A817" s="5"/>
       <c r="B817" s="5"/>
       <c r="C817" s="5"/>
@@ -12261,7 +12373,7 @@
       <c r="K817" s="4"/>
       <c r="L817" s="5"/>
     </row>
-    <row r="818" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:12">
       <c r="A818" s="5"/>
       <c r="B818" s="5"/>
       <c r="C818" s="5"/>
@@ -12275,7 +12387,7 @@
       <c r="K818" s="4"/>
       <c r="L818" s="5"/>
     </row>
-    <row r="819" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:12">
       <c r="A819" s="5"/>
       <c r="B819" s="5"/>
       <c r="C819" s="5"/>
@@ -12289,7 +12401,7 @@
       <c r="K819" s="4"/>
       <c r="L819" s="5"/>
     </row>
-    <row r="820" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:12">
       <c r="A820" s="5"/>
       <c r="B820" s="5"/>
       <c r="C820" s="5"/>
@@ -12303,7 +12415,7 @@
       <c r="K820" s="4"/>
       <c r="L820" s="5"/>
     </row>
-    <row r="821" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:12">
       <c r="A821" s="5"/>
       <c r="B821" s="5"/>
       <c r="C821" s="5"/>
@@ -12317,7 +12429,7 @@
       <c r="K821" s="4"/>
       <c r="L821" s="5"/>
     </row>
-    <row r="822" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:12">
       <c r="A822" s="5"/>
       <c r="B822" s="5"/>
       <c r="C822" s="5"/>
@@ -12331,7 +12443,7 @@
       <c r="K822" s="4"/>
       <c r="L822" s="5"/>
     </row>
-    <row r="823" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:12">
       <c r="A823" s="5"/>
       <c r="B823" s="5"/>
       <c r="C823" s="5"/>
@@ -12345,7 +12457,7 @@
       <c r="K823" s="4"/>
       <c r="L823" s="5"/>
     </row>
-    <row r="824" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:12">
       <c r="A824" s="5"/>
       <c r="B824" s="5"/>
       <c r="C824" s="5"/>
@@ -12359,7 +12471,7 @@
       <c r="K824" s="4"/>
       <c r="L824" s="5"/>
     </row>
-    <row r="825" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:12">
       <c r="A825" s="5"/>
       <c r="B825" s="5"/>
       <c r="C825" s="5"/>
@@ -12373,7 +12485,7 @@
       <c r="K825" s="4"/>
       <c r="L825" s="5"/>
     </row>
-    <row r="826" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:12">
       <c r="A826" s="5"/>
       <c r="B826" s="5"/>
       <c r="C826" s="5"/>
@@ -12387,7 +12499,7 @@
       <c r="K826" s="4"/>
       <c r="L826" s="5"/>
     </row>
-    <row r="827" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:12">
       <c r="A827" s="5"/>
       <c r="B827" s="5"/>
       <c r="C827" s="5"/>
@@ -12401,7 +12513,7 @@
       <c r="K827" s="4"/>
       <c r="L827" s="5"/>
     </row>
-    <row r="828" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:12">
       <c r="A828" s="5"/>
       <c r="B828" s="5"/>
       <c r="C828" s="5"/>
@@ -12415,7 +12527,7 @@
       <c r="K828" s="4"/>
       <c r="L828" s="5"/>
     </row>
-    <row r="829" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:12">
       <c r="A829" s="5"/>
       <c r="B829" s="5"/>
       <c r="C829" s="5"/>
@@ -12429,7 +12541,7 @@
       <c r="K829" s="4"/>
       <c r="L829" s="5"/>
     </row>
-    <row r="830" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:12">
       <c r="A830" s="5"/>
       <c r="B830" s="5"/>
       <c r="C830" s="5"/>
@@ -12443,7 +12555,7 @@
       <c r="K830" s="4"/>
       <c r="L830" s="5"/>
     </row>
-    <row r="831" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:12">
       <c r="A831" s="5"/>
       <c r="B831" s="5"/>
       <c r="C831" s="5"/>
@@ -12457,7 +12569,7 @@
       <c r="K831" s="4"/>
       <c r="L831" s="5"/>
     </row>
-    <row r="832" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:12">
       <c r="A832" s="5"/>
       <c r="B832" s="5"/>
       <c r="C832" s="5"/>
@@ -12471,7 +12583,7 @@
       <c r="K832" s="4"/>
       <c r="L832" s="5"/>
     </row>
-    <row r="833" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:12">
       <c r="A833" s="5"/>
       <c r="B833" s="5"/>
       <c r="C833" s="5"/>
@@ -12485,7 +12597,7 @@
       <c r="K833" s="4"/>
       <c r="L833" s="5"/>
     </row>
-    <row r="834" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:12">
       <c r="A834" s="5"/>
       <c r="B834" s="5"/>
       <c r="C834" s="5"/>
@@ -12499,7 +12611,7 @@
       <c r="K834" s="4"/>
       <c r="L834" s="5"/>
     </row>
-    <row r="835" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:12">
       <c r="A835" s="5"/>
       <c r="B835" s="5"/>
       <c r="C835" s="5"/>
@@ -12513,7 +12625,7 @@
       <c r="K835" s="4"/>
       <c r="L835" s="5"/>
     </row>
-    <row r="836" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:12">
       <c r="A836" s="5"/>
       <c r="B836" s="5"/>
       <c r="C836" s="5"/>
@@ -12527,7 +12639,7 @@
       <c r="K836" s="4"/>
       <c r="L836" s="5"/>
     </row>
-    <row r="837" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:12">
       <c r="A837" s="5"/>
       <c r="B837" s="5"/>
       <c r="C837" s="5"/>
@@ -12541,7 +12653,7 @@
       <c r="K837" s="4"/>
       <c r="L837" s="5"/>
     </row>
-    <row r="838" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:12">
       <c r="A838" s="5"/>
       <c r="B838" s="5"/>
       <c r="C838" s="5"/>
@@ -12555,7 +12667,7 @@
       <c r="K838" s="4"/>
       <c r="L838" s="5"/>
     </row>
-    <row r="839" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:12">
       <c r="A839" s="5"/>
       <c r="B839" s="5"/>
       <c r="C839" s="5"/>
@@ -12569,7 +12681,7 @@
       <c r="K839" s="4"/>
       <c r="L839" s="5"/>
     </row>
-    <row r="840" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:12">
       <c r="A840" s="5"/>
       <c r="B840" s="5"/>
       <c r="C840" s="5"/>
@@ -12583,7 +12695,7 @@
       <c r="K840" s="4"/>
       <c r="L840" s="5"/>
     </row>
-    <row r="841" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:12">
       <c r="A841" s="5"/>
       <c r="B841" s="5"/>
       <c r="C841" s="5"/>
@@ -12597,7 +12709,7 @@
       <c r="K841" s="4"/>
       <c r="L841" s="5"/>
     </row>
-    <row r="842" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:12">
       <c r="A842" s="5"/>
       <c r="B842" s="5"/>
       <c r="C842" s="5"/>
@@ -12611,7 +12723,7 @@
       <c r="K842" s="4"/>
       <c r="L842" s="5"/>
     </row>
-    <row r="843" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:12">
       <c r="A843" s="5"/>
       <c r="B843" s="5"/>
       <c r="C843" s="5"/>
@@ -12625,7 +12737,7 @@
       <c r="K843" s="4"/>
       <c r="L843" s="5"/>
     </row>
-    <row r="844" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:12">
       <c r="A844" s="5"/>
       <c r="B844" s="5"/>
       <c r="C844" s="5"/>
@@ -12639,7 +12751,7 @@
       <c r="K844" s="4"/>
       <c r="L844" s="5"/>
     </row>
-    <row r="845" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:12">
       <c r="A845" s="5"/>
       <c r="B845" s="5"/>
       <c r="C845" s="5"/>
@@ -12653,7 +12765,7 @@
       <c r="K845" s="4"/>
       <c r="L845" s="5"/>
     </row>
-    <row r="846" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:12">
       <c r="A846" s="5"/>
       <c r="B846" s="5"/>
       <c r="C846" s="5"/>
@@ -12667,7 +12779,7 @@
       <c r="K846" s="4"/>
       <c r="L846" s="5"/>
     </row>
-    <row r="847" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:12">
       <c r="A847" s="5"/>
       <c r="B847" s="5"/>
       <c r="C847" s="5"/>
@@ -12681,7 +12793,7 @@
       <c r="K847" s="4"/>
       <c r="L847" s="5"/>
     </row>
-    <row r="848" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:12">
       <c r="A848" s="5"/>
       <c r="B848" s="5"/>
       <c r="C848" s="5"/>
@@ -12695,7 +12807,7 @@
       <c r="K848" s="4"/>
       <c r="L848" s="5"/>
     </row>
-    <row r="849" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:12">
       <c r="A849" s="5"/>
       <c r="B849" s="5"/>
       <c r="C849" s="5"/>
@@ -12709,7 +12821,7 @@
       <c r="K849" s="4"/>
       <c r="L849" s="5"/>
     </row>
-    <row r="850" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:12">
       <c r="A850" s="5"/>
       <c r="B850" s="5"/>
       <c r="C850" s="5"/>
@@ -12723,7 +12835,7 @@
       <c r="K850" s="4"/>
       <c r="L850" s="5"/>
     </row>
-    <row r="851" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:12">
       <c r="A851" s="5"/>
       <c r="B851" s="5"/>
       <c r="C851" s="5"/>
@@ -12737,7 +12849,7 @@
       <c r="K851" s="4"/>
       <c r="L851" s="5"/>
     </row>
-    <row r="852" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:12">
       <c r="A852" s="5"/>
       <c r="B852" s="5"/>
       <c r="C852" s="5"/>
@@ -12751,7 +12863,7 @@
       <c r="K852" s="4"/>
       <c r="L852" s="5"/>
     </row>
-    <row r="853" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:12">
       <c r="A853" s="5"/>
       <c r="B853" s="5"/>
       <c r="C853" s="5"/>
@@ -12765,7 +12877,7 @@
       <c r="K853" s="4"/>
       <c r="L853" s="5"/>
     </row>
-    <row r="854" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:12">
       <c r="A854" s="5"/>
       <c r="B854" s="5"/>
       <c r="C854" s="5"/>
@@ -12779,7 +12891,7 @@
       <c r="K854" s="4"/>
       <c r="L854" s="5"/>
     </row>
-    <row r="855" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:12">
       <c r="A855" s="5"/>
       <c r="B855" s="5"/>
       <c r="C855" s="5"/>
@@ -12793,7 +12905,7 @@
       <c r="K855" s="4"/>
       <c r="L855" s="5"/>
     </row>
-    <row r="856" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:12">
       <c r="A856" s="5"/>
       <c r="B856" s="5"/>
       <c r="C856" s="5"/>
@@ -12807,7 +12919,7 @@
       <c r="K856" s="4"/>
       <c r="L856" s="5"/>
     </row>
-    <row r="857" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:12">
       <c r="A857" s="5"/>
       <c r="B857" s="5"/>
       <c r="C857" s="5"/>
@@ -12821,7 +12933,7 @@
       <c r="K857" s="4"/>
       <c r="L857" s="5"/>
     </row>
-    <row r="858" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:12">
       <c r="A858" s="5"/>
       <c r="B858" s="5"/>
       <c r="C858" s="5"/>
@@ -12835,7 +12947,7 @@
       <c r="K858" s="4"/>
       <c r="L858" s="5"/>
     </row>
-    <row r="859" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:12">
       <c r="A859" s="5"/>
       <c r="B859" s="5"/>
       <c r="C859" s="5"/>
@@ -12849,7 +12961,7 @@
       <c r="K859" s="4"/>
       <c r="L859" s="5"/>
     </row>
-    <row r="860" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:12">
       <c r="A860" s="5"/>
       <c r="B860" s="5"/>
       <c r="C860" s="5"/>
@@ -12863,7 +12975,7 @@
       <c r="K860" s="4"/>
       <c r="L860" s="5"/>
     </row>
-    <row r="861" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:12">
       <c r="A861" s="5"/>
       <c r="B861" s="5"/>
       <c r="C861" s="5"/>
@@ -12877,7 +12989,7 @@
       <c r="K861" s="4"/>
       <c r="L861" s="5"/>
     </row>
-    <row r="862" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:12">
       <c r="A862" s="5"/>
       <c r="B862" s="5"/>
       <c r="C862" s="5"/>
@@ -12891,7 +13003,7 @@
       <c r="K862" s="4"/>
       <c r="L862" s="5"/>
     </row>
-    <row r="863" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:12">
       <c r="A863" s="5"/>
       <c r="B863" s="5"/>
       <c r="C863" s="5"/>
@@ -12905,7 +13017,7 @@
       <c r="K863" s="4"/>
       <c r="L863" s="5"/>
     </row>
-    <row r="864" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:12">
       <c r="A864" s="5"/>
       <c r="B864" s="5"/>
       <c r="C864" s="5"/>
@@ -12919,7 +13031,7 @@
       <c r="K864" s="4"/>
       <c r="L864" s="5"/>
     </row>
-    <row r="865" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:12">
       <c r="A865" s="5"/>
       <c r="B865" s="5"/>
       <c r="C865" s="5"/>
@@ -12933,7 +13045,7 @@
       <c r="K865" s="4"/>
       <c r="L865" s="5"/>
     </row>
-    <row r="866" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:12">
       <c r="A866" s="5"/>
       <c r="B866" s="5"/>
       <c r="C866" s="5"/>
@@ -12947,7 +13059,7 @@
       <c r="K866" s="4"/>
       <c r="L866" s="5"/>
     </row>
-    <row r="867" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:12">
       <c r="A867" s="5"/>
       <c r="B867" s="5"/>
       <c r="C867" s="5"/>
@@ -12961,7 +13073,7 @@
       <c r="K867" s="4"/>
       <c r="L867" s="5"/>
     </row>
-    <row r="868" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:12">
       <c r="A868" s="5"/>
       <c r="B868" s="5"/>
       <c r="C868" s="5"/>
@@ -12975,7 +13087,7 @@
       <c r="K868" s="4"/>
       <c r="L868" s="5"/>
     </row>
-    <row r="869" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:12">
       <c r="A869" s="5"/>
       <c r="B869" s="5"/>
       <c r="C869" s="5"/>
@@ -12989,7 +13101,7 @@
       <c r="K869" s="4"/>
       <c r="L869" s="5"/>
     </row>
-    <row r="870" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:12">
       <c r="A870" s="5"/>
       <c r="B870" s="5"/>
       <c r="C870" s="5"/>
@@ -13003,7 +13115,7 @@
       <c r="K870" s="4"/>
       <c r="L870" s="5"/>
     </row>
-    <row r="871" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:12">
       <c r="A871" s="5"/>
       <c r="B871" s="5"/>
       <c r="C871" s="5"/>
@@ -13017,7 +13129,7 @@
       <c r="K871" s="4"/>
       <c r="L871" s="5"/>
     </row>
-    <row r="872" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:12">
       <c r="A872" s="5"/>
       <c r="B872" s="5"/>
       <c r="C872" s="5"/>
@@ -13031,7 +13143,7 @@
       <c r="K872" s="4"/>
       <c r="L872" s="5"/>
     </row>
-    <row r="873" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:12">
       <c r="A873" s="5"/>
       <c r="B873" s="5"/>
       <c r="C873" s="5"/>
@@ -13045,7 +13157,7 @@
       <c r="K873" s="4"/>
       <c r="L873" s="5"/>
     </row>
-    <row r="874" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:12">
       <c r="A874" s="5"/>
       <c r="B874" s="5"/>
       <c r="C874" s="5"/>
@@ -13059,7 +13171,7 @@
       <c r="K874" s="4"/>
       <c r="L874" s="5"/>
     </row>
-    <row r="875" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:12">
       <c r="A875" s="5"/>
       <c r="B875" s="5"/>
       <c r="C875" s="5"/>
@@ -13073,7 +13185,7 @@
       <c r="K875" s="4"/>
       <c r="L875" s="5"/>
     </row>
-    <row r="876" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:12">
       <c r="A876" s="5"/>
       <c r="B876" s="5"/>
       <c r="C876" s="5"/>
@@ -13087,7 +13199,7 @@
       <c r="K876" s="4"/>
       <c r="L876" s="5"/>
     </row>
-    <row r="877" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:12">
       <c r="A877" s="5"/>
       <c r="B877" s="5"/>
       <c r="C877" s="5"/>
@@ -13101,7 +13213,7 @@
       <c r="K877" s="4"/>
       <c r="L877" s="5"/>
     </row>
-    <row r="878" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:12">
       <c r="A878" s="5"/>
       <c r="B878" s="5"/>
       <c r="C878" s="5"/>
@@ -13115,7 +13227,7 @@
       <c r="K878" s="4"/>
       <c r="L878" s="5"/>
     </row>
-    <row r="879" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:12">
       <c r="A879" s="5"/>
       <c r="B879" s="5"/>
       <c r="C879" s="5"/>
@@ -13129,7 +13241,7 @@
       <c r="K879" s="4"/>
       <c r="L879" s="5"/>
     </row>
-    <row r="880" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:12">
       <c r="A880" s="5"/>
       <c r="B880" s="5"/>
       <c r="C880" s="5"/>
@@ -13143,7 +13255,7 @@
       <c r="K880" s="4"/>
       <c r="L880" s="5"/>
     </row>
-    <row r="881" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:12">
       <c r="A881" s="5"/>
       <c r="B881" s="5"/>
       <c r="C881" s="5"/>
@@ -13157,7 +13269,7 @@
       <c r="K881" s="4"/>
       <c r="L881" s="5"/>
     </row>
-    <row r="882" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:12">
       <c r="A882" s="5"/>
       <c r="B882" s="5"/>
       <c r="C882" s="5"/>
@@ -13171,7 +13283,7 @@
       <c r="K882" s="4"/>
       <c r="L882" s="5"/>
     </row>
-    <row r="883" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:12">
       <c r="A883" s="5"/>
       <c r="B883" s="5"/>
       <c r="C883" s="5"/>
@@ -13185,7 +13297,7 @@
       <c r="K883" s="4"/>
       <c r="L883" s="5"/>
     </row>
-    <row r="884" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:12">
       <c r="A884" s="5"/>
       <c r="B884" s="5"/>
       <c r="C884" s="5"/>
@@ -13199,7 +13311,7 @@
       <c r="K884" s="4"/>
       <c r="L884" s="5"/>
     </row>
-    <row r="885" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:12">
       <c r="A885" s="5"/>
       <c r="B885" s="5"/>
       <c r="C885" s="5"/>
@@ -13213,7 +13325,7 @@
       <c r="K885" s="4"/>
       <c r="L885" s="5"/>
     </row>
-    <row r="886" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:12">
       <c r="A886" s="5"/>
       <c r="B886" s="5"/>
       <c r="C886" s="5"/>
@@ -13227,7 +13339,7 @@
       <c r="K886" s="4"/>
       <c r="L886" s="5"/>
     </row>
-    <row r="887" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:12">
       <c r="A887" s="5"/>
       <c r="B887" s="5"/>
       <c r="C887" s="5"/>
@@ -13241,7 +13353,7 @@
       <c r="K887" s="4"/>
       <c r="L887" s="5"/>
     </row>
-    <row r="888" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:12">
       <c r="A888" s="5"/>
       <c r="B888" s="5"/>
       <c r="C888" s="5"/>
@@ -13255,7 +13367,7 @@
       <c r="K888" s="4"/>
       <c r="L888" s="5"/>
     </row>
-    <row r="889" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:12">
       <c r="A889" s="5"/>
       <c r="B889" s="5"/>
       <c r="C889" s="5"/>
@@ -13269,7 +13381,7 @@
       <c r="K889" s="4"/>
       <c r="L889" s="5"/>
     </row>
-    <row r="890" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:12">
       <c r="A890" s="5"/>
       <c r="B890" s="5"/>
       <c r="C890" s="5"/>
@@ -13283,7 +13395,7 @@
       <c r="K890" s="4"/>
       <c r="L890" s="5"/>
     </row>
-    <row r="891" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:12">
       <c r="A891" s="5"/>
       <c r="B891" s="5"/>
       <c r="C891" s="5"/>
@@ -13297,7 +13409,7 @@
       <c r="K891" s="4"/>
       <c r="L891" s="5"/>
     </row>
-    <row r="892" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:12">
       <c r="A892" s="5"/>
       <c r="B892" s="5"/>
       <c r="C892" s="5"/>
@@ -13311,7 +13423,7 @@
       <c r="K892" s="4"/>
       <c r="L892" s="5"/>
     </row>
-    <row r="893" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:12">
       <c r="A893" s="5"/>
       <c r="B893" s="5"/>
       <c r="C893" s="5"/>
@@ -13325,7 +13437,7 @@
       <c r="K893" s="4"/>
       <c r="L893" s="5"/>
     </row>
-    <row r="894" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:12">
       <c r="A894" s="5"/>
       <c r="B894" s="5"/>
       <c r="C894" s="5"/>
@@ -13339,7 +13451,7 @@
       <c r="K894" s="4"/>
       <c r="L894" s="5"/>
     </row>
-    <row r="895" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:12">
       <c r="A895" s="5"/>
       <c r="B895" s="5"/>
       <c r="C895" s="5"/>
@@ -13353,7 +13465,7 @@
       <c r="K895" s="4"/>
       <c r="L895" s="5"/>
     </row>
-    <row r="896" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:12">
       <c r="A896" s="5"/>
       <c r="B896" s="5"/>
       <c r="C896" s="5"/>
@@ -13367,7 +13479,7 @@
       <c r="K896" s="4"/>
       <c r="L896" s="5"/>
     </row>
-    <row r="897" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:12">
       <c r="A897" s="5"/>
       <c r="B897" s="5"/>
       <c r="C897" s="5"/>
@@ -13381,7 +13493,7 @@
       <c r="K897" s="4"/>
       <c r="L897" s="5"/>
     </row>
-    <row r="898" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:12">
       <c r="A898" s="5"/>
       <c r="B898" s="5"/>
       <c r="C898" s="5"/>
@@ -13395,7 +13507,7 @@
       <c r="K898" s="4"/>
       <c r="L898" s="5"/>
     </row>
-    <row r="899" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:12">
       <c r="A899" s="5"/>
       <c r="B899" s="5"/>
       <c r="C899" s="5"/>
@@ -13409,7 +13521,7 @@
       <c r="K899" s="4"/>
       <c r="L899" s="5"/>
     </row>
-    <row r="900" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:12">
       <c r="A900" s="5"/>
       <c r="B900" s="5"/>
       <c r="C900" s="5"/>
@@ -13423,7 +13535,7 @@
       <c r="K900" s="4"/>
       <c r="L900" s="5"/>
     </row>
-    <row r="901" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:12">
       <c r="A901" s="5"/>
       <c r="B901" s="5"/>
       <c r="C901" s="5"/>
@@ -13437,7 +13549,7 @@
       <c r="K901" s="4"/>
       <c r="L901" s="5"/>
     </row>
-    <row r="902" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:12">
       <c r="A902" s="5"/>
       <c r="B902" s="5"/>
       <c r="C902" s="5"/>
@@ -13451,7 +13563,7 @@
       <c r="K902" s="4"/>
       <c r="L902" s="5"/>
     </row>
-    <row r="903" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:12">
       <c r="A903" s="5"/>
       <c r="B903" s="5"/>
       <c r="C903" s="5"/>
@@ -13465,7 +13577,7 @@
       <c r="K903" s="4"/>
       <c r="L903" s="5"/>
     </row>
-    <row r="904" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:12">
       <c r="A904" s="5"/>
       <c r="B904" s="5"/>
       <c r="C904" s="5"/>
@@ -13479,7 +13591,7 @@
       <c r="K904" s="4"/>
       <c r="L904" s="5"/>
     </row>
-    <row r="905" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:12">
       <c r="A905" s="5"/>
       <c r="B905" s="5"/>
       <c r="C905" s="5"/>
@@ -13493,7 +13605,7 @@
       <c r="K905" s="4"/>
       <c r="L905" s="5"/>
     </row>
-    <row r="906" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:12">
       <c r="A906" s="5"/>
       <c r="B906" s="5"/>
       <c r="C906" s="5"/>
@@ -13507,7 +13619,7 @@
       <c r="K906" s="4"/>
       <c r="L906" s="5"/>
     </row>
-    <row r="907" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:12">
       <c r="A907" s="5"/>
       <c r="B907" s="5"/>
       <c r="C907" s="5"/>
@@ -13521,7 +13633,7 @@
       <c r="K907" s="4"/>
       <c r="L907" s="5"/>
     </row>
-    <row r="908" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:12">
       <c r="A908" s="5"/>
       <c r="B908" s="5"/>
       <c r="C908" s="5"/>
@@ -13535,7 +13647,7 @@
       <c r="K908" s="4"/>
       <c r="L908" s="5"/>
     </row>
-    <row r="909" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:12">
       <c r="A909" s="5"/>
       <c r="B909" s="5"/>
       <c r="C909" s="5"/>
@@ -13549,7 +13661,7 @@
       <c r="K909" s="4"/>
       <c r="L909" s="5"/>
     </row>
-    <row r="910" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:12">
       <c r="A910" s="5"/>
       <c r="B910" s="5"/>
       <c r="C910" s="5"/>
@@ -13563,7 +13675,7 @@
       <c r="K910" s="4"/>
       <c r="L910" s="5"/>
     </row>
-    <row r="911" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:12">
       <c r="A911" s="5"/>
       <c r="B911" s="5"/>
       <c r="C911" s="5"/>
@@ -13577,7 +13689,7 @@
       <c r="K911" s="4"/>
       <c r="L911" s="5"/>
     </row>
-    <row r="912" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:12">
       <c r="A912" s="5"/>
       <c r="B912" s="5"/>
       <c r="C912" s="5"/>
@@ -13591,7 +13703,7 @@
       <c r="K912" s="4"/>
       <c r="L912" s="5"/>
     </row>
-    <row r="913" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:12">
       <c r="A913" s="5"/>
       <c r="B913" s="5"/>
       <c r="C913" s="5"/>
@@ -13605,7 +13717,7 @@
       <c r="K913" s="4"/>
       <c r="L913" s="5"/>
     </row>
-    <row r="914" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:12">
       <c r="A914" s="5"/>
       <c r="B914" s="5"/>
       <c r="C914" s="5"/>
@@ -13619,7 +13731,7 @@
       <c r="K914" s="4"/>
       <c r="L914" s="5"/>
     </row>
-    <row r="915" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:12">
       <c r="A915" s="5"/>
       <c r="B915" s="5"/>
       <c r="C915" s="5"/>
@@ -13633,7 +13745,7 @@
       <c r="K915" s="4"/>
       <c r="L915" s="5"/>
     </row>
-    <row r="916" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:12">
       <c r="A916" s="5"/>
       <c r="B916" s="5"/>
       <c r="C916" s="5"/>
@@ -13647,7 +13759,7 @@
       <c r="K916" s="4"/>
       <c r="L916" s="5"/>
     </row>
-    <row r="917" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:12">
       <c r="A917" s="5"/>
       <c r="B917" s="5"/>
       <c r="C917" s="5"/>
@@ -13661,7 +13773,7 @@
       <c r="K917" s="4"/>
       <c r="L917" s="5"/>
     </row>
-    <row r="918" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:12">
       <c r="A918" s="5"/>
       <c r="B918" s="5"/>
       <c r="C918" s="5"/>
@@ -13675,7 +13787,7 @@
       <c r="K918" s="4"/>
       <c r="L918" s="5"/>
     </row>
-    <row r="919" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:12">
       <c r="A919" s="5"/>
       <c r="B919" s="5"/>
       <c r="C919" s="5"/>
@@ -13689,7 +13801,7 @@
       <c r="K919" s="4"/>
       <c r="L919" s="5"/>
     </row>
-    <row r="920" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:12">
       <c r="A920" s="5"/>
       <c r="B920" s="5"/>
       <c r="C920" s="5"/>
@@ -13703,7 +13815,7 @@
       <c r="K920" s="4"/>
       <c r="L920" s="5"/>
     </row>
-    <row r="921" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:12">
       <c r="A921" s="5"/>
       <c r="B921" s="5"/>
       <c r="C921" s="5"/>
@@ -13717,7 +13829,7 @@
       <c r="K921" s="4"/>
       <c r="L921" s="5"/>
     </row>
-    <row r="922" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:12">
       <c r="A922" s="5"/>
       <c r="B922" s="5"/>
       <c r="C922" s="5"/>
@@ -13731,7 +13843,7 @@
       <c r="K922" s="4"/>
       <c r="L922" s="5"/>
     </row>
-    <row r="923" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:12">
       <c r="A923" s="5"/>
       <c r="B923" s="5"/>
       <c r="C923" s="5"/>
@@ -13745,7 +13857,7 @@
       <c r="K923" s="4"/>
       <c r="L923" s="5"/>
     </row>
-    <row r="924" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:12">
       <c r="A924" s="5"/>
       <c r="B924" s="5"/>
       <c r="C924" s="5"/>
@@ -13759,7 +13871,7 @@
       <c r="K924" s="4"/>
       <c r="L924" s="5"/>
     </row>
-    <row r="925" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:12">
       <c r="A925" s="5"/>
       <c r="B925" s="5"/>
       <c r="C925" s="5"/>
@@ -13773,7 +13885,7 @@
       <c r="K925" s="4"/>
       <c r="L925" s="5"/>
     </row>
-    <row r="926" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:12">
       <c r="A926" s="5"/>
       <c r="B926" s="5"/>
       <c r="C926" s="5"/>
@@ -13787,7 +13899,7 @@
       <c r="K926" s="4"/>
       <c r="L926" s="5"/>
     </row>
-    <row r="927" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:12">
       <c r="A927" s="5"/>
       <c r="B927" s="5"/>
       <c r="C927" s="5"/>
@@ -13801,7 +13913,7 @@
       <c r="K927" s="4"/>
       <c r="L927" s="5"/>
     </row>
-    <row r="928" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:12">
       <c r="A928" s="5"/>
       <c r="B928" s="5"/>
       <c r="C928" s="5"/>
@@ -13815,7 +13927,7 @@
       <c r="K928" s="4"/>
       <c r="L928" s="5"/>
     </row>
-    <row r="929" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:12">
       <c r="A929" s="5"/>
       <c r="B929" s="5"/>
       <c r="C929" s="5"/>
@@ -13829,7 +13941,7 @@
       <c r="K929" s="4"/>
       <c r="L929" s="5"/>
     </row>
-    <row r="930" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:12">
       <c r="A930" s="5"/>
       <c r="B930" s="5"/>
       <c r="C930" s="5"/>
@@ -13843,7 +13955,7 @@
       <c r="K930" s="4"/>
       <c r="L930" s="5"/>
     </row>
-    <row r="931" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:12">
       <c r="A931" s="5"/>
       <c r="B931" s="5"/>
       <c r="C931" s="5"/>
@@ -13857,7 +13969,7 @@
       <c r="K931" s="4"/>
       <c r="L931" s="5"/>
     </row>
-    <row r="932" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:12">
       <c r="A932" s="5"/>
       <c r="B932" s="5"/>
       <c r="C932" s="5"/>
@@ -13871,7 +13983,7 @@
       <c r="K932" s="4"/>
       <c r="L932" s="5"/>
     </row>
-    <row r="933" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:12">
       <c r="A933" s="5"/>
       <c r="B933" s="5"/>
       <c r="C933" s="5"/>
@@ -13885,7 +13997,7 @@
       <c r="K933" s="4"/>
       <c r="L933" s="5"/>
     </row>
-    <row r="934" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:12">
       <c r="A934" s="5"/>
       <c r="B934" s="5"/>
       <c r="C934" s="5"/>
@@ -13899,7 +14011,7 @@
       <c r="K934" s="4"/>
       <c r="L934" s="5"/>
     </row>
-    <row r="935" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:12">
       <c r="A935" s="5"/>
       <c r="B935" s="5"/>
       <c r="C935" s="5"/>
@@ -13913,7 +14025,7 @@
       <c r="K935" s="4"/>
       <c r="L935" s="5"/>
     </row>
-    <row r="936" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:12">
       <c r="A936" s="5"/>
       <c r="B936" s="5"/>
       <c r="C936" s="5"/>
@@ -13927,7 +14039,7 @@
       <c r="K936" s="4"/>
       <c r="L936" s="5"/>
     </row>
-    <row r="937" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:12">
       <c r="A937" s="5"/>
       <c r="B937" s="5"/>
       <c r="C937" s="5"/>
@@ -13941,7 +14053,7 @@
       <c r="K937" s="4"/>
       <c r="L937" s="5"/>
     </row>
-    <row r="938" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:12">
       <c r="A938" s="5"/>
       <c r="B938" s="5"/>
       <c r="C938" s="5"/>
@@ -13955,7 +14067,7 @@
       <c r="K938" s="4"/>
       <c r="L938" s="5"/>
     </row>
-    <row r="939" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:12">
       <c r="A939" s="5"/>
       <c r="B939" s="5"/>
       <c r="C939" s="5"/>
@@ -13969,7 +14081,7 @@
       <c r="K939" s="4"/>
       <c r="L939" s="5"/>
     </row>
-    <row r="940" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:12">
       <c r="A940" s="5"/>
       <c r="B940" s="5"/>
       <c r="C940" s="5"/>
@@ -13983,7 +14095,7 @@
       <c r="K940" s="4"/>
       <c r="L940" s="5"/>
     </row>
-    <row r="941" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:12">
       <c r="A941" s="5"/>
       <c r="B941" s="5"/>
       <c r="C941" s="5"/>
@@ -13997,7 +14109,7 @@
       <c r="K941" s="4"/>
       <c r="L941" s="5"/>
     </row>
-    <row r="942" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:12">
       <c r="A942" s="5"/>
       <c r="B942" s="5"/>
       <c r="C942" s="5"/>
@@ -14011,7 +14123,7 @@
       <c r="K942" s="4"/>
       <c r="L942" s="5"/>
     </row>
-    <row r="943" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:12">
       <c r="A943" s="5"/>
       <c r="B943" s="5"/>
       <c r="C943" s="5"/>
@@ -14025,7 +14137,7 @@
       <c r="K943" s="4"/>
       <c r="L943" s="5"/>
     </row>
-    <row r="944" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:12">
       <c r="A944" s="5"/>
       <c r="B944" s="5"/>
       <c r="C944" s="5"/>
@@ -14039,7 +14151,7 @@
       <c r="K944" s="4"/>
       <c r="L944" s="5"/>
     </row>
-    <row r="945" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:12">
       <c r="A945" s="5"/>
       <c r="B945" s="5"/>
       <c r="C945" s="5"/>
@@ -14053,7 +14165,7 @@
       <c r="K945" s="4"/>
       <c r="L945" s="5"/>
     </row>
-    <row r="946" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:12">
       <c r="A946" s="5"/>
       <c r="B946" s="5"/>
       <c r="C946" s="5"/>
@@ -14067,7 +14179,7 @@
       <c r="K946" s="4"/>
       <c r="L946" s="5"/>
     </row>
-    <row r="947" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:12">
       <c r="A947" s="5"/>
       <c r="B947" s="5"/>
       <c r="C947" s="5"/>
@@ -14081,7 +14193,7 @@
       <c r="K947" s="4"/>
       <c r="L947" s="5"/>
     </row>
-    <row r="948" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:12">
       <c r="A948" s="5"/>
       <c r="B948" s="5"/>
       <c r="C948" s="5"/>
@@ -14095,7 +14207,7 @@
       <c r="K948" s="4"/>
       <c r="L948" s="5"/>
     </row>
-    <row r="949" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:12">
       <c r="A949" s="5"/>
       <c r="B949" s="5"/>
       <c r="C949" s="5"/>
@@ -14109,7 +14221,7 @@
       <c r="K949" s="4"/>
       <c r="L949" s="5"/>
     </row>
-    <row r="950" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:12">
       <c r="A950" s="5"/>
       <c r="B950" s="5"/>
       <c r="C950" s="5"/>
@@ -14123,7 +14235,7 @@
       <c r="K950" s="4"/>
       <c r="L950" s="5"/>
     </row>
-    <row r="951" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:12">
       <c r="A951" s="5"/>
       <c r="B951" s="5"/>
       <c r="C951" s="5"/>
@@ -14137,7 +14249,7 @@
       <c r="K951" s="4"/>
       <c r="L951" s="5"/>
     </row>
-    <row r="952" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:12">
       <c r="A952" s="5"/>
       <c r="B952" s="5"/>
       <c r="C952" s="5"/>
@@ -14151,7 +14263,7 @@
       <c r="K952" s="4"/>
       <c r="L952" s="5"/>
     </row>
-    <row r="953" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:12">
       <c r="A953" s="5"/>
       <c r="B953" s="5"/>
       <c r="C953" s="5"/>
@@ -14165,7 +14277,7 @@
       <c r="K953" s="4"/>
       <c r="L953" s="5"/>
     </row>
-    <row r="954" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:12">
       <c r="A954" s="5"/>
       <c r="B954" s="5"/>
       <c r="C954" s="5"/>
@@ -14179,7 +14291,7 @@
       <c r="K954" s="4"/>
       <c r="L954" s="5"/>
     </row>
-    <row r="955" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:12">
       <c r="A955" s="5"/>
       <c r="B955" s="5"/>
       <c r="C955" s="5"/>
@@ -14193,7 +14305,7 @@
       <c r="K955" s="4"/>
       <c r="L955" s="5"/>
     </row>
-    <row r="956" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:12">
       <c r="A956" s="5"/>
       <c r="B956" s="5"/>
       <c r="C956" s="5"/>
@@ -14207,7 +14319,7 @@
       <c r="K956" s="4"/>
       <c r="L956" s="5"/>
     </row>
-    <row r="957" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:12">
       <c r="A957" s="5"/>
       <c r="B957" s="5"/>
       <c r="C957" s="5"/>
@@ -14221,7 +14333,7 @@
       <c r="K957" s="4"/>
       <c r="L957" s="5"/>
     </row>
-    <row r="958" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:12">
       <c r="A958" s="5"/>
       <c r="B958" s="5"/>
       <c r="C958" s="5"/>
@@ -14235,7 +14347,7 @@
       <c r="K958" s="4"/>
       <c r="L958" s="5"/>
     </row>
-    <row r="959" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:12">
       <c r="A959" s="5"/>
       <c r="B959" s="5"/>
       <c r="C959" s="5"/>
@@ -14249,7 +14361,7 @@
       <c r="K959" s="4"/>
       <c r="L959" s="5"/>
     </row>
-    <row r="960" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:12">
       <c r="A960" s="5"/>
       <c r="B960" s="5"/>
       <c r="C960" s="5"/>
@@ -14263,7 +14375,7 @@
       <c r="K960" s="4"/>
       <c r="L960" s="5"/>
     </row>
-    <row r="961" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:12">
       <c r="A961" s="5"/>
       <c r="B961" s="5"/>
       <c r="C961" s="5"/>
@@ -14277,7 +14389,7 @@
       <c r="K961" s="4"/>
       <c r="L961" s="5"/>
     </row>
-    <row r="962" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:12">
       <c r="A962" s="5"/>
       <c r="B962" s="5"/>
       <c r="C962" s="5"/>
@@ -14291,7 +14403,7 @@
       <c r="K962" s="4"/>
       <c r="L962" s="5"/>
     </row>
-    <row r="963" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:12">
       <c r="A963" s="5"/>
       <c r="B963" s="5"/>
       <c r="C963" s="5"/>
@@ -14305,7 +14417,7 @@
       <c r="K963" s="4"/>
       <c r="L963" s="5"/>
     </row>
-    <row r="964" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:12">
       <c r="A964" s="5"/>
       <c r="B964" s="5"/>
       <c r="C964" s="5"/>
@@ -14319,7 +14431,7 @@
       <c r="K964" s="4"/>
       <c r="L964" s="5"/>
     </row>
-    <row r="965" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:12">
       <c r="A965" s="5"/>
       <c r="B965" s="5"/>
       <c r="C965" s="5"/>
@@ -14333,7 +14445,7 @@
       <c r="K965" s="4"/>
       <c r="L965" s="5"/>
     </row>
-    <row r="966" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:12">
       <c r="A966" s="5"/>
       <c r="B966" s="5"/>
       <c r="C966" s="5"/>
@@ -14347,7 +14459,7 @@
       <c r="K966" s="4"/>
       <c r="L966" s="5"/>
     </row>
-    <row r="967" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:12">
       <c r="A967" s="5"/>
       <c r="B967" s="5"/>
       <c r="C967" s="5"/>
@@ -14361,7 +14473,7 @@
       <c r="K967" s="4"/>
       <c r="L967" s="5"/>
     </row>
-    <row r="968" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:12">
       <c r="A968" s="5"/>
       <c r="B968" s="5"/>
       <c r="C968" s="5"/>
@@ -14375,7 +14487,7 @@
       <c r="K968" s="4"/>
       <c r="L968" s="5"/>
     </row>
-    <row r="969" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:12">
       <c r="A969" s="5"/>
       <c r="B969" s="5"/>
       <c r="C969" s="5"/>
@@ -14389,7 +14501,7 @@
       <c r="K969" s="4"/>
       <c r="L969" s="5"/>
     </row>
-    <row r="970" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:12">
       <c r="A970" s="5"/>
       <c r="B970" s="5"/>
       <c r="C970" s="5"/>
@@ -14403,7 +14515,7 @@
       <c r="K970" s="4"/>
       <c r="L970" s="5"/>
     </row>
-    <row r="971" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:12">
       <c r="A971" s="5"/>
       <c r="B971" s="5"/>
       <c r="C971" s="5"/>
@@ -14417,7 +14529,7 @@
       <c r="K971" s="4"/>
       <c r="L971" s="5"/>
     </row>
-    <row r="972" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:12">
       <c r="A972" s="5"/>
       <c r="B972" s="5"/>
       <c r="C972" s="5"/>
@@ -14431,7 +14543,7 @@
       <c r="K972" s="4"/>
       <c r="L972" s="5"/>
     </row>
-    <row r="973" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:12">
       <c r="A973" s="5"/>
       <c r="B973" s="5"/>
       <c r="C973" s="5"/>
@@ -14445,7 +14557,7 @@
       <c r="K973" s="4"/>
       <c r="L973" s="5"/>
     </row>
-    <row r="974" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:12">
       <c r="A974" s="5"/>
       <c r="B974" s="5"/>
       <c r="C974" s="5"/>
@@ -14459,7 +14571,7 @@
       <c r="K974" s="4"/>
       <c r="L974" s="5"/>
     </row>
-    <row r="975" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:12">
       <c r="A975" s="5"/>
       <c r="B975" s="5"/>
       <c r="C975" s="5"/>
@@ -14473,7 +14585,7 @@
       <c r="K975" s="4"/>
       <c r="L975" s="5"/>
     </row>
-    <row r="976" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:12">
       <c r="A976" s="5"/>
       <c r="B976" s="5"/>
       <c r="C976" s="5"/>
@@ -14487,7 +14599,7 @@
       <c r="K976" s="4"/>
       <c r="L976" s="5"/>
     </row>
-    <row r="977" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:12">
       <c r="A977" s="5"/>
       <c r="B977" s="5"/>
       <c r="C977" s="5"/>
@@ -14501,7 +14613,7 @@
       <c r="K977" s="4"/>
       <c r="L977" s="5"/>
     </row>
-    <row r="978" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:12">
       <c r="A978" s="5"/>
       <c r="B978" s="5"/>
       <c r="C978" s="5"/>
@@ -14515,7 +14627,7 @@
       <c r="K978" s="4"/>
       <c r="L978" s="5"/>
     </row>
-    <row r="979" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:12">
       <c r="A979" s="5"/>
       <c r="B979" s="5"/>
       <c r="C979" s="5"/>
@@ -14529,7 +14641,7 @@
       <c r="K979" s="4"/>
       <c r="L979" s="5"/>
     </row>
-    <row r="980" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:12">
       <c r="A980" s="5"/>
       <c r="B980" s="5"/>
       <c r="C980" s="5"/>
@@ -14543,7 +14655,7 @@
       <c r="K980" s="4"/>
       <c r="L980" s="5"/>
     </row>
-    <row r="981" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:12">
       <c r="A981" s="5"/>
       <c r="B981" s="5"/>
       <c r="C981" s="5"/>
@@ -14557,7 +14669,7 @@
       <c r="K981" s="4"/>
       <c r="L981" s="5"/>
     </row>
-    <row r="982" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:12">
       <c r="A982" s="5"/>
       <c r="B982" s="5"/>
       <c r="C982" s="5"/>
@@ -14571,7 +14683,7 @@
       <c r="K982" s="4"/>
       <c r="L982" s="5"/>
     </row>
-    <row r="983" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:12">
       <c r="A983" s="5"/>
       <c r="B983" s="5"/>
       <c r="C983" s="5"/>
@@ -14585,7 +14697,7 @@
       <c r="K983" s="4"/>
       <c r="L983" s="5"/>
     </row>
-    <row r="984" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:12">
       <c r="A984" s="5"/>
       <c r="B984" s="5"/>
       <c r="C984" s="5"/>
@@ -14599,7 +14711,7 @@
       <c r="K984" s="4"/>
       <c r="L984" s="5"/>
     </row>
-    <row r="985" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:12">
       <c r="A985" s="5"/>
       <c r="B985" s="5"/>
       <c r="C985" s="5"/>
@@ -14613,7 +14725,7 @@
       <c r="K985" s="4"/>
       <c r="L985" s="5"/>
     </row>
-    <row r="986" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:12">
       <c r="A986" s="5"/>
       <c r="B986" s="5"/>
       <c r="C986" s="5"/>
@@ -14627,7 +14739,7 @@
       <c r="K986" s="4"/>
       <c r="L986" s="5"/>
     </row>
-    <row r="987" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:12">
       <c r="A987" s="5"/>
       <c r="B987" s="5"/>
       <c r="C987" s="5"/>
@@ -14641,7 +14753,7 @@
       <c r="K987" s="4"/>
       <c r="L987" s="5"/>
     </row>
-    <row r="988" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:12">
       <c r="A988" s="5"/>
       <c r="B988" s="5"/>
       <c r="C988" s="5"/>
@@ -14655,7 +14767,7 @@
       <c r="K988" s="4"/>
       <c r="L988" s="5"/>
     </row>
-    <row r="989" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:12">
       <c r="A989" s="5"/>
       <c r="B989" s="5"/>
       <c r="C989" s="5"/>
@@ -14669,7 +14781,7 @@
       <c r="K989" s="4"/>
       <c r="L989" s="5"/>
     </row>
-    <row r="990" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:12">
       <c r="A990" s="5"/>
       <c r="B990" s="5"/>
       <c r="C990" s="5"/>
@@ -14683,7 +14795,7 @@
       <c r="K990" s="4"/>
       <c r="L990" s="5"/>
     </row>
-    <row r="991" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:12">
       <c r="A991" s="5"/>
       <c r="B991" s="5"/>
       <c r="C991" s="5"/>
@@ -14697,7 +14809,7 @@
       <c r="K991" s="4"/>
       <c r="L991" s="5"/>
     </row>
-    <row r="992" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:12">
       <c r="A992" s="5"/>
       <c r="B992" s="5"/>
       <c r="C992" s="5"/>
@@ -14711,7 +14823,7 @@
       <c r="K992" s="4"/>
       <c r="L992" s="5"/>
     </row>
-    <row r="993" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:12">
       <c r="A993" s="5"/>
       <c r="B993" s="5"/>
       <c r="C993" s="5"/>
@@ -14725,7 +14837,7 @@
       <c r="K993" s="4"/>
       <c r="L993" s="5"/>
     </row>
-    <row r="994" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:12">
       <c r="A994" s="5"/>
       <c r="B994" s="5"/>
       <c r="C994" s="5"/>
@@ -14739,7 +14851,7 @@
       <c r="K994" s="4"/>
       <c r="L994" s="5"/>
     </row>
-    <row r="995" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:12">
       <c r="A995" s="5"/>
       <c r="B995" s="5"/>
       <c r="C995" s="5"/>
@@ -14753,7 +14865,7 @@
       <c r="K995" s="4"/>
       <c r="L995" s="5"/>
     </row>
-    <row r="996" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:12">
       <c r="A996" s="5"/>
       <c r="B996" s="5"/>
       <c r="C996" s="5"/>
@@ -14767,7 +14879,7 @@
       <c r="K996" s="4"/>
       <c r="L996" s="5"/>
     </row>
-    <row r="997" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:12">
       <c r="A997" s="5"/>
       <c r="B997" s="5"/>
       <c r="C997" s="5"/>
@@ -14781,7 +14893,7 @@
       <c r="K997" s="4"/>
       <c r="L997" s="5"/>
     </row>
-    <row r="998" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:12">
       <c r="A998" s="5"/>
       <c r="B998" s="5"/>
       <c r="C998" s="5"/>
@@ -14795,7 +14907,7 @@
       <c r="K998" s="4"/>
       <c r="L998" s="5"/>
     </row>
-    <row r="999" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:12">
       <c r="A999" s="5"/>
       <c r="B999" s="5"/>
       <c r="C999" s="5"/>
@@ -14809,7 +14921,7 @@
       <c r="K999" s="4"/>
       <c r="L999" s="5"/>
     </row>
-    <row r="1000" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:12">
       <c r="A1000" s="5"/>
       <c r="B1000" s="5"/>
       <c r="C1000" s="5"/>
@@ -14836,7 +14948,7 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
@@ -14845,7 +14957,7 @@
     <col min="13" max="13" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="46.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14886,7 +14998,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="38.5">
       <c r="A2" s="8" t="s">
         <v>47</v>
       </c>
@@ -14921,7 +15033,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="38.5">
       <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
@@ -14958,7 +15070,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="62">
       <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
@@ -14997,7 +15109,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="71" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="62">
       <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
@@ -15038,7 +15150,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="71" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="62">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
@@ -15079,7 +15191,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="38.5">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -15118,7 +15230,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="71" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="51">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -15159,7 +15271,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="71" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="51">
       <c r="A9" s="5" t="s">
         <v>62</v>
       </c>
@@ -15200,7 +15312,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="38.5">
       <c r="A10" s="5" t="s">
         <v>64</v>
       </c>
@@ -15237,7 +15349,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="62">
       <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
@@ -15276,7 +15388,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="71" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="62">
       <c r="A12" s="5" t="s">
         <v>67</v>
       </c>
@@ -15317,7 +15429,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="71" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="62">
       <c r="A13" s="5" t="s">
         <v>69</v>
       </c>
@@ -15358,7 +15470,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="38.5">
       <c r="A14" s="5" t="s">
         <v>71</v>
       </c>
@@ -15397,7 +15509,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="51">
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
@@ -15438,7 +15550,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="51">
       <c r="A16" s="5" t="s">
         <v>74</v>
       </c>
@@ -15479,7 +15591,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="38.5">
       <c r="A17" s="5" t="s">
         <v>76</v>
       </c>
@@ -15516,7 +15628,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="62">
       <c r="A18" s="5" t="s">
         <v>77</v>
       </c>
@@ -15555,7 +15667,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="62">
       <c r="A19" s="5" t="s">
         <v>79</v>
       </c>
@@ -15596,7 +15708,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="62">
       <c r="A20" s="5" t="s">
         <v>81</v>
       </c>
@@ -15637,7 +15749,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="38.5">
       <c r="A21" s="5" t="s">
         <v>83</v>
       </c>
@@ -15676,7 +15788,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="51">
       <c r="A22" s="5" t="s">
         <v>84</v>
       </c>
@@ -15717,7 +15829,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="51">
       <c r="A23" s="5" t="s">
         <v>86</v>
       </c>
@@ -15758,7 +15870,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -15776,4 +15888,124 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D2B758-35A9-41BF-B455-0B386702980B}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="5" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" thickBot="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="37.5" thickBot="1">
+      <c r="A2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19" thickBot="1">
+      <c r="A3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19" thickBot="1">
+      <c r="A4" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19" thickBot="1">
+      <c r="A5" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19" thickBot="1">
+      <c r="A6" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/patterns/acs5_variable_sheets/agexnum_disabilities_poverty.xlsx
+++ b/src/patterns/acs5_variable_sheets/agexnum_disabilities_poverty.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rwalls\gh\srpdio\src\patterns\acs5_variable_sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rwalls/gh/srpdio/src/patterns/acs5_variable_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CC5F3B-5096-40C9-BDB1-8F9B955076CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517E683B-8F81-A64E-AAD0-6E31447470AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27150" yWindow="1695" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{FEA26EBD-3762-0C43-B317-DA7196A35EE9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200" activeTab="1" xr2:uid="{FEA26EBD-3762-0C43-B317-DA7196A35EE9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Age by number of disabilities" sheetId="1" r:id="rId1"/>
-    <sheet name="Age by disability by poverty" sheetId="2" r:id="rId2"/>
-    <sheet name="Age EJS" sheetId="3" r:id="rId3"/>
+    <sheet name="Age by num disabilities - done" sheetId="1" r:id="rId1"/>
+    <sheet name="Age x disabil x poverty - done" sheetId="2" r:id="rId2"/>
+    <sheet name="Age EJS - done" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -849,10 +849,10 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C15" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.33203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.33203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" style="4" customWidth="1"/>
@@ -869,7 +869,7 @@
     <col min="13" max="16384" width="25.33203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31">
+    <row r="1" spans="1:13" ht="34">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" ht="26">
+    <row r="2" spans="1:13" ht="29">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -938,7 +938,7 @@
       </c>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="26">
+    <row r="3" spans="1:13" ht="29">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -972,7 +972,7 @@
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:13" ht="31">
+    <row r="4" spans="1:13" ht="43">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="46.5">
+    <row r="5" spans="1:13" ht="51">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:13" ht="26">
+    <row r="6" spans="1:13" ht="29">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="26">
+    <row r="7" spans="1:13" ht="29">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="31">
+    <row r="8" spans="1:13" ht="43">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="46.5">
+    <row r="9" spans="1:13" ht="51">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="26">
+    <row r="10" spans="1:13" ht="29">
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="26">
+    <row r="11" spans="1:13" ht="29">
       <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="31">
+    <row r="12" spans="1:13" ht="43">
       <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="46.5">
+    <row r="13" spans="1:13" ht="51">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:13" ht="26">
+    <row r="14" spans="1:13" ht="29">
       <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
@@ -14944,11 +14944,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAC1550-EDF9-BA42-8BE7-533504D0CD5D}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
@@ -14957,7 +14957,7 @@
     <col min="13" max="13" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="46.5">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="38.5">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="43">
       <c r="A2" s="8" t="s">
         <v>47</v>
       </c>
@@ -15033,7 +15033,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="38.5">
+    <row r="3" spans="1:13" ht="43">
       <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
@@ -15070,7 +15070,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="62">
+    <row r="4" spans="1:13" ht="68">
       <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
@@ -15109,7 +15109,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="62">
+    <row r="5" spans="1:13" ht="71">
       <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
@@ -15150,7 +15150,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="62">
+    <row r="6" spans="1:13" ht="71">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
@@ -15191,7 +15191,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="38.5">
+    <row r="7" spans="1:13" ht="43">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -15230,7 +15230,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="51">
+    <row r="8" spans="1:13" ht="57">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -15271,7 +15271,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="51">
+    <row r="9" spans="1:13" ht="57">
       <c r="A9" s="5" t="s">
         <v>62</v>
       </c>
@@ -15312,7 +15312,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="38.5">
+    <row r="10" spans="1:13" ht="43">
       <c r="A10" s="5" t="s">
         <v>64</v>
       </c>
@@ -15349,7 +15349,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="62">
+    <row r="11" spans="1:13" ht="68">
       <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
@@ -15388,7 +15388,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="62">
+    <row r="12" spans="1:13" ht="71">
       <c r="A12" s="5" t="s">
         <v>67</v>
       </c>
@@ -15429,7 +15429,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="62">
+    <row r="13" spans="1:13" ht="71">
       <c r="A13" s="5" t="s">
         <v>69</v>
       </c>
@@ -15470,7 +15470,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="38.5">
+    <row r="14" spans="1:13" ht="43">
       <c r="A14" s="5" t="s">
         <v>71</v>
       </c>
@@ -15509,7 +15509,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="51">
+    <row r="15" spans="1:13" ht="57">
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
@@ -15550,7 +15550,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="51">
+    <row r="16" spans="1:13" ht="57">
       <c r="A16" s="5" t="s">
         <v>74</v>
       </c>
@@ -15591,7 +15591,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="38.5">
+    <row r="17" spans="1:13" ht="43">
       <c r="A17" s="5" t="s">
         <v>76</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="62">
+    <row r="18" spans="1:13" ht="68">
       <c r="A18" s="5" t="s">
         <v>77</v>
       </c>
@@ -15667,7 +15667,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="62">
+    <row r="19" spans="1:13" ht="68">
       <c r="A19" s="5" t="s">
         <v>79</v>
       </c>
@@ -15708,7 +15708,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="62">
+    <row r="20" spans="1:13" ht="68">
       <c r="A20" s="5" t="s">
         <v>81</v>
       </c>
@@ -15749,7 +15749,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="38.5">
+    <row r="21" spans="1:13" ht="43">
       <c r="A21" s="5" t="s">
         <v>83</v>
       </c>
@@ -15788,7 +15788,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="51">
+    <row r="22" spans="1:13" ht="57">
       <c r="A22" s="5" t="s">
         <v>84</v>
       </c>
@@ -15829,7 +15829,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="51">
+    <row r="23" spans="1:13" ht="57">
       <c r="A23" s="5" t="s">
         <v>86</v>
       </c>
@@ -15894,16 +15894,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D2B758-35A9-41BF-B455-0B386702980B}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="5" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1">
+    <row r="1" spans="1:5" ht="18" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="37.5" thickBot="1">
+    <row r="2" spans="1:5" ht="41" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -15937,7 +15937,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19" thickBot="1">
+    <row r="3" spans="1:5" ht="21" thickBot="1">
       <c r="A3" s="12" t="s">
         <v>105</v>
       </c>
@@ -15954,7 +15954,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19" thickBot="1">
+    <row r="4" spans="1:5" ht="21" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>108</v>
       </c>
@@ -15971,7 +15971,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19" thickBot="1">
+    <row r="5" spans="1:5" ht="21" thickBot="1">
       <c r="A5" s="12" t="s">
         <v>112</v>
       </c>
@@ -15988,7 +15988,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19" thickBot="1">
+    <row r="6" spans="1:5" ht="21" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>115</v>
       </c>
